--- a/benches/results/grow.xlsx
+++ b/benches/results/grow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\uurdev\orx\orx-split-vec\benches\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{49ACB4E2-2E1B-49DA-8160-3A9EF42B870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99608F77-C707-40C4-8335-7AA160A9391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="5325" windowWidth="23970" windowHeight="15375" activeTab="2" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="grow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>std_vec_with_capacity</t>
   </si>
@@ -50,30 +50,6 @@
   </si>
   <si>
     <t>split_vec_doubling</t>
-  </si>
-  <si>
-    <t>split_vec_exp</t>
-  </si>
-  <si>
-    <t>u64</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>(u64,u64,u64,u64)</t>
-  </si>
-  <si>
-    <t>(u64,u64,u64,u64,u64,u64,u64,u64)</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>4 x u64</t>
-  </si>
-  <si>
-    <t>8 x u64</t>
   </si>
   <si>
     <t>f</t>
@@ -96,13 +72,36 @@
   <si>
     <t>i</t>
   </si>
+  <si>
+    <t>u64 x 1</t>
+  </si>
+  <si>
+    <t>u64 x 16</t>
+  </si>
+  <si>
+    <t>vector length</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,18 +138,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,763 +492,668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B49DD08-8011-4940-BE17-2C7933D323C6}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="B1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>100000</v>
-      </c>
       <c r="C2">
-        <v>0.21303999999999998</v>
-      </c>
-      <c r="D2">
-        <v>1.0644</v>
+        <v>1024</v>
       </c>
       <c r="E2">
-        <v>1.7544</v>
-      </c>
-      <c r="F2">
-        <v>7.6679000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>2.0407000000000003E-3</v>
+      </c>
+      <c r="G2">
+        <v>1.0648999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>100000</v>
-      </c>
       <c r="C3">
-        <v>0.36804000000000003</v>
-      </c>
-      <c r="D3">
-        <v>1.7545999999999999</v>
+        <v>1024</v>
       </c>
       <c r="E3">
-        <v>3.3786</v>
-      </c>
-      <c r="F3">
-        <v>8.1288999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>3.0747000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <v>2.0448000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>100000</v>
-      </c>
       <c r="C4">
-        <v>0.33423000000000003</v>
-      </c>
-      <c r="D4">
-        <v>0.64690000000000003</v>
+        <v>1024</v>
       </c>
       <c r="E4">
-        <v>1.1992</v>
-      </c>
-      <c r="F4">
-        <v>7.4208999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>2.4805999999999999E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.2414E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>100000</v>
-      </c>
       <c r="C5">
-        <v>0.32956000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.99880999999999998</v>
+        <v>1024</v>
       </c>
       <c r="E5">
-        <v>1.7129000000000001</v>
-      </c>
-      <c r="F5">
-        <v>7.6627999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>100000</v>
+        <v>3.2768000000000003E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.5285E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.34294999999999998</v>
-      </c>
-      <c r="D6">
-        <v>0.77110999999999996</v>
+        <v>16384</v>
       </c>
       <c r="E6">
-        <v>1.5638000000000001</v>
-      </c>
-      <c r="F6">
-        <v>7.3407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>3.1682000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.54661000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>16384</v>
+      </c>
+      <c r="E7">
+        <v>4.1688999999999997E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.80680999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>16384</v>
+      </c>
+      <c r="E8">
+        <v>4.2616999999999995E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.26712999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>16384</v>
+      </c>
+      <c r="E9">
+        <v>3.9875000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.40232000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>1000000</v>
-      </c>
-      <c r="C7">
-        <v>3.3733</v>
-      </c>
-      <c r="D7">
-        <v>11.071999999999999</v>
-      </c>
-      <c r="E7">
-        <v>19.337</v>
-      </c>
-      <c r="F7">
-        <v>79.363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C10">
+        <v>262144</v>
+      </c>
+      <c r="E10">
+        <f xml:space="preserve"> 848.3/1000</f>
+        <v>0.84829999999999994</v>
+      </c>
+      <c r="G10">
+        <v>9.4764999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>1000000</v>
-      </c>
-      <c r="C8">
-        <v>4.7102000000000004</v>
-      </c>
-      <c r="D8">
-        <v>18.102</v>
-      </c>
-      <c r="E8">
-        <v>34.35</v>
-      </c>
-      <c r="F8">
-        <v>84.093000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C11">
+        <v>262144</v>
+      </c>
+      <c r="E11">
+        <v>1.1892</v>
+      </c>
+      <c r="G11">
+        <v>16.956</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>1000000</v>
-      </c>
-      <c r="C9">
-        <v>4.0094000000000003</v>
-      </c>
-      <c r="D9">
-        <v>11.714</v>
-      </c>
-      <c r="E9">
-        <v>19.959</v>
-      </c>
-      <c r="F9">
-        <v>82.045000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C12">
+        <v>262144</v>
+      </c>
+      <c r="E12">
+        <f>707.9/1000</f>
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="G12">
+        <v>6.6300999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>1000000</v>
-      </c>
-      <c r="C10">
-        <v>4.3239000000000001</v>
-      </c>
-      <c r="D10">
-        <v>11.427</v>
-      </c>
-      <c r="E10">
-        <v>19.896999999999998</v>
-      </c>
-      <c r="F10">
-        <v>81.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>1000000</v>
-      </c>
-      <c r="C11">
-        <v>4.2992999999999997</v>
-      </c>
-      <c r="D11">
-        <v>11.329000000000001</v>
-      </c>
-      <c r="E11">
-        <v>19.815000000000001</v>
-      </c>
-      <c r="F11">
-        <v>79.674999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13">
+        <v>262144</v>
+      </c>
+      <c r="E13">
+        <f xml:space="preserve"> 818.52/1000</f>
+        <v>0.81852000000000003</v>
+      </c>
+      <c r="G13">
+        <v>9.8628999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="B12">
-        <v>10000000</v>
-      </c>
-      <c r="C12">
-        <v>35.26</v>
-      </c>
-      <c r="D12">
-        <v>116.4</v>
-      </c>
-      <c r="E12">
-        <v>201.1</v>
-      </c>
-      <c r="F12">
-        <v>824.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14">
+        <v>4194304</v>
+      </c>
+      <c r="E14">
+        <v>14.356</v>
+      </c>
+      <c r="G14">
+        <v>162.96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>10000000</v>
-      </c>
-      <c r="C13">
-        <v>64.605000000000004</v>
-      </c>
-      <c r="D13">
-        <v>247.11</v>
-      </c>
-      <c r="E13">
-        <v>472.97</v>
-      </c>
-      <c r="F13">
-        <v>909.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15">
+        <v>4194304</v>
+      </c>
+      <c r="E15">
+        <v>22.524999999999999</v>
+      </c>
+      <c r="G15">
+        <v>297.17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>10000000</v>
-      </c>
-      <c r="C14">
-        <v>46.429000000000002</v>
-      </c>
-      <c r="D14">
-        <v>120.99</v>
-      </c>
-      <c r="E14">
-        <v>204.91</v>
-      </c>
-      <c r="F14">
-        <v>840.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C16">
+        <v>4194304</v>
+      </c>
+      <c r="E16">
+        <v>12.53</v>
+      </c>
+      <c r="G16">
+        <v>147.15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="B15">
-        <v>10000000</v>
-      </c>
-      <c r="C15">
-        <v>46.429000000000002</v>
-      </c>
-      <c r="D15">
-        <v>120.65</v>
-      </c>
-      <c r="E15">
-        <v>203.82</v>
-      </c>
-      <c r="F15">
-        <v>840.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>10000000</v>
-      </c>
-      <c r="C16">
-        <v>47.061999999999998</v>
-      </c>
-      <c r="D16">
-        <v>119.7</v>
-      </c>
-      <c r="E16">
-        <v>204.39</v>
-      </c>
-      <c r="F16">
-        <v>832.41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C17">
+        <v>4194304</v>
+      </c>
+      <c r="E17">
+        <v>15.792999999999999</v>
+      </c>
+      <c r="G17">
+        <v>154.85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="8" t="str">
+        <f>C1</f>
+        <v>vector length</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="str">
+        <f>E1</f>
+        <v>u64 x 1</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="str">
+        <f>G1</f>
+        <v>u64 x 16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20">
-        <v>100000</v>
-      </c>
-      <c r="C20" s="3">
-        <f>C2/C$2</f>
+      <c r="C27" s="9">
+        <f>C2</f>
+        <v>1024</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10">
+        <f>E2</f>
+        <v>2.0407000000000003E-3</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10">
+        <f>G2</f>
+        <v>1.0648999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:F20" si="0">D2/D$2</f>
+      <c r="C28" s="9">
+        <f t="shared" ref="C28:E38" si="0">C3</f>
+        <v>1024</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10">
+        <f t="shared" si="0"/>
+        <v>3.0747000000000001E-3</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
+        <f t="shared" ref="G28" si="1">G3</f>
+        <v>2.0448000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4805999999999999E-3</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11">
+        <f t="shared" ref="G29" si="2">G4</f>
+        <v>1.2414E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13">
+        <f t="shared" si="0"/>
+        <v>3.2768000000000003E-3</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13">
+        <f t="shared" ref="G30" si="3">G5</f>
+        <v>1.5285E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1682000000000002E-2</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10">
+        <f t="shared" ref="G31" si="4">G6</f>
+        <v>0.54661000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
+      <c r="C32" s="9">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10">
+        <f t="shared" si="0"/>
+        <v>4.1688999999999997E-2</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10">
+        <f t="shared" ref="G32" si="5">G7</f>
+        <v>0.80680999999999992</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10">
+        <f t="shared" si="0"/>
+        <v>4.2616999999999995E-2</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11">
+        <f t="shared" ref="G33" si="6">G8</f>
+        <v>0.26712999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="14">
+        <f t="shared" si="0"/>
+        <v>3.9875000000000001E-2</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13">
+        <f t="shared" ref="G34" si="7">G9</f>
+        <v>0.40232000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.84829999999999994</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10">
+        <f t="shared" ref="G35" si="8">G10</f>
+        <v>9.4764999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>100000</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21:F24" si="1">C3/C$2</f>
-        <v>1.7275628989861063</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6484404359263434</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9257865937072505</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>1.060120763181575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C36" s="9">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1892</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10">
+        <f t="shared" ref="G36" si="9">G11</f>
+        <v>16.956</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22">
-        <v>100000</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="1"/>
-        <v>1.5688603079233949</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.60776024051108613</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.6835385316917465</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.96778779065976328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C37" s="9">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="11">
+        <f t="shared" si="0"/>
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11">
+        <f t="shared" ref="G37" si="10">G12</f>
+        <v>6.6300999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23">
-        <v>100000</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="1"/>
-        <v>1.5469395418700715</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.93837842916196912</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.97634518923848612</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.99933488960471573</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="1"/>
-        <v>1.609791588434097</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.72445509207065006</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.89135886912904705</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.9573286036594113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>1000000</v>
-      </c>
-      <c r="C25" s="3">
-        <f>C7/C$7</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" ref="D25:F25" si="2">D7/D$7</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>1000000</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26:F26" si="3">C8/C$7</f>
-        <v>1.3963181454362199</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="3"/>
-        <v>1.6349349710982661</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="3"/>
-        <v>1.776387236903346</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0595995615085116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>1000000</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:F27" si="4">C9/C$7</f>
-        <v>1.1885690570064922</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="4"/>
-        <v>1.057984104046243</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0321663132854113</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0337940854050376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>1000000</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" ref="C28:F28" si="5">C10/C$7</f>
-        <v>1.2818012035692052</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0320628612716762</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0289600248228783</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0230208031450423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" ref="C29:F29" si="6">C11/C$7</f>
-        <v>1.2745086413897371</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0232117052023122</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0247194497595284</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0039313030001387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>10000000</v>
-      </c>
-      <c r="C30" s="3">
-        <f>C12/C$12</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" ref="D30:F30" si="7">D12/D$12</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>10000000</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" ref="C31:F31" si="8">C13/C$12</f>
-        <v>1.8322461712989224</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="8"/>
-        <v>2.1229381443298969</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="8"/>
-        <v>2.3519144704127304</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1037465725170463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <v>10000000</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" ref="C32:F32" si="9">C14/C$12</f>
-        <v>1.316761202495746</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0394329896907215</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0189457981103929</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="9"/>
-        <v>1.0203465094270947</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>10000000</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" ref="C33:F33" si="10">C15/C$12</f>
-        <v>1.316761202495746</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="10"/>
-        <v>1.036512027491409</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="10"/>
-        <v>1.0135256091496767</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="10"/>
-        <v>1.0195578850306957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>10000000</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" ref="C34:F34" si="11">C16/C$12</f>
-        <v>1.33471355643789</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="11"/>
-        <v>1.0283505154639174</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="11"/>
-        <v>1.0163600198906018</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="11"/>
-        <v>1.0099366673946275</v>
-      </c>
-    </row>
+      <c r="C38" s="12">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81852000000000003</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13">
+        <f t="shared" ref="G38" si="11">G13</f>
+        <v>9.8628999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="C20:C34">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
+  <conditionalFormatting sqref="E27:F30">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B99115C3-5951-4DE8-84F7-276EC9A8C74D}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D34">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
+  <conditionalFormatting sqref="E31:F34">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EBF25B87-3614-4F22-805F-F9A93C6CD518}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E34">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
+  <conditionalFormatting sqref="E35:F38">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2731C1DE-C60D-44A9-AAA3-583B2EDEB16B}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F34">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
+  <conditionalFormatting sqref="G27:G30">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{07DA4FD4-0E99-4409-80ED-790660892AF6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G34">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BF1A1EE4-EC81-46E7-9B3E-CB49C6AAFCF0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:G38">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CFE272BE-E69E-45A3-942B-4DBD27071EE0}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B99115C3-5951-4DE8-84F7-276EC9A8C74D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E27:F30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EBF25B87-3614-4F22-805F-F9A93C6CD518}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E31:F34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2731C1DE-C60D-44A9-AAA3-583B2EDEB16B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E35:F38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{07DA4FD4-0E99-4409-80ED-790660892AF6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G27:G30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BF1A1EE4-EC81-46E7-9B3E-CB49C6AAFCF0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G31:G34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CFE272BE-E69E-45A3-942B-4DBD27071EE0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G35:G38</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1242,7 +1173,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -1250,7 +1181,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <f>2^B1</f>
@@ -1259,19 +1190,19 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1295,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1318,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F14" si="1">2^(A6+2)-$B$2</f>
+        <f t="shared" ref="F6:F13" si="1">2^(A6+2)-$B$2</f>
         <v>12</v>
       </c>
       <c r="I6">
@@ -1515,7 +1446,7 @@
         <f>"cumulative_capacity("&amp;I14&amp;"),"</f>
         <v>cumulative_capacity(31),</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="2">
         <f>POWER(2,31+3)-4</f>
         <v>17179869180</v>
       </c>
@@ -1577,7 +1508,7 @@
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <f>2^(A17+3)-$B$2</f>
         <v>4</v>
       </c>
@@ -1605,7 +1536,7 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <f t="shared" ref="B18:B48" si="8">2^(A18+3)-$B$2</f>
         <v>12</v>
       </c>
@@ -1633,7 +1564,7 @@
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
@@ -1661,7 +1592,7 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
@@ -1689,7 +1620,7 @@
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="1">
         <f t="shared" si="8"/>
         <v>124</v>
       </c>
@@ -1717,7 +1648,7 @@
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <f t="shared" si="8"/>
         <v>252</v>
       </c>
@@ -1745,7 +1676,7 @@
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="1">
         <f t="shared" si="8"/>
         <v>508</v>
       </c>
@@ -1773,7 +1704,7 @@
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="1">
         <f t="shared" si="8"/>
         <v>1020</v>
       </c>
@@ -1801,7 +1732,7 @@
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="1">
         <f t="shared" si="8"/>
         <v>2044</v>
       </c>
@@ -1829,7 +1760,7 @@
       <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="1">
         <f t="shared" si="8"/>
         <v>4092</v>
       </c>
@@ -1857,7 +1788,7 @@
       <c r="A27">
         <v>10</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="1">
         <f t="shared" si="8"/>
         <v>8188</v>
       </c>
@@ -1885,7 +1816,7 @@
       <c r="A28">
         <v>11</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="1">
         <f t="shared" si="8"/>
         <v>16380</v>
       </c>
@@ -1913,7 +1844,7 @@
       <c r="A29">
         <v>12</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="1">
         <f t="shared" si="8"/>
         <v>32764</v>
       </c>
@@ -1941,7 +1872,7 @@
       <c r="A30">
         <v>13</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="1">
         <f t="shared" si="8"/>
         <v>65532</v>
       </c>
@@ -1969,7 +1900,7 @@
       <c r="A31">
         <v>14</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="1">
         <f t="shared" si="8"/>
         <v>131068</v>
       </c>
@@ -1997,7 +1928,7 @@
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="1">
         <f t="shared" si="8"/>
         <v>262140</v>
       </c>
@@ -2025,7 +1956,7 @@
       <c r="A33">
         <v>16</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="1">
         <f t="shared" si="8"/>
         <v>524284</v>
       </c>
@@ -2053,7 +1984,7 @@
       <c r="A34">
         <v>17</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="1">
         <f t="shared" si="8"/>
         <v>1048572</v>
       </c>
@@ -2081,7 +2012,7 @@
       <c r="A35">
         <v>18</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="1">
         <f t="shared" si="8"/>
         <v>2097148</v>
       </c>
@@ -2109,7 +2040,7 @@
       <c r="A36">
         <v>19</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="1">
         <f t="shared" si="8"/>
         <v>4194300</v>
       </c>
@@ -2137,7 +2068,7 @@
       <c r="A37">
         <v>20</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="1">
         <f t="shared" si="8"/>
         <v>8388604</v>
       </c>
@@ -2165,7 +2096,7 @@
       <c r="A38">
         <v>21</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="1">
         <f t="shared" si="8"/>
         <v>16777212</v>
       </c>
@@ -2193,7 +2124,7 @@
       <c r="A39">
         <v>22</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="1">
         <f t="shared" si="8"/>
         <v>33554428</v>
       </c>
@@ -2221,7 +2152,7 @@
       <c r="A40">
         <v>23</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="1">
         <f t="shared" si="8"/>
         <v>67108860</v>
       </c>
@@ -2249,7 +2180,7 @@
       <c r="A41">
         <v>24</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="1">
         <f t="shared" si="8"/>
         <v>134217724</v>
       </c>
@@ -2277,7 +2208,7 @@
       <c r="A42">
         <v>25</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="1">
         <f t="shared" si="8"/>
         <v>268435452</v>
       </c>
@@ -2305,7 +2236,7 @@
       <c r="A43">
         <v>26</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="1">
         <f t="shared" si="8"/>
         <v>536870908</v>
       </c>
@@ -2333,7 +2264,7 @@
       <c r="A44">
         <v>27</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="1">
         <f t="shared" si="8"/>
         <v>1073741820</v>
       </c>
@@ -2361,7 +2292,7 @@
       <c r="A45">
         <v>28</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="1">
         <f t="shared" si="8"/>
         <v>2147483644</v>
       </c>
@@ -2389,7 +2320,7 @@
       <c r="A46">
         <v>29</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="1">
         <f t="shared" si="8"/>
         <v>4294967292</v>
       </c>
@@ -2417,7 +2348,7 @@
       <c r="A47">
         <v>30</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="1">
         <f t="shared" si="8"/>
         <v>8589934588</v>
       </c>
@@ -2426,7 +2357,7 @@
       <c r="A48">
         <v>31</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="1">
         <f t="shared" si="8"/>
         <v>17179869180</v>
       </c>
@@ -2441,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC696669-5694-4DAC-B82C-E06B66CF14C0}">
   <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -2458,7 +2389,7 @@
         <f>A2-1</f>
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="3" t="str">
         <f>"let c"&amp;A2&amp;" = if numf &lt; "&amp;A2&amp;" {
             c"&amp;B2&amp;".chain([].iter())
         } else {
@@ -2480,7 +2411,7 @@
         <f t="shared" ref="B3:B31" si="0">A3-1</f>
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C31" si="1">"let c"&amp;A3&amp;" = if numf &lt; "&amp;A3&amp;" {
             c"&amp;B3&amp;".chain([].iter())
         } else {
@@ -2502,7 +2433,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c5 = if numf &lt; 5 {
             c4.chain([].iter())
@@ -2520,7 +2451,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c6 = if numf &lt; 6 {
             c5.chain([].iter())
@@ -2538,7 +2469,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c7 = if numf &lt; 7 {
             c6.chain([].iter())
@@ -2556,7 +2487,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c8 = if numf &lt; 8 {
             c7.chain([].iter())
@@ -2574,7 +2505,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c9 = if numf &lt; 9 {
             c8.chain([].iter())
@@ -2592,7 +2523,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c10 = if numf &lt; 10 {
             c9.chain([].iter())
@@ -2610,7 +2541,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c11 = if numf &lt; 11 {
             c10.chain([].iter())
@@ -2628,7 +2559,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c12 = if numf &lt; 12 {
             c11.chain([].iter())
@@ -2646,7 +2577,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c13 = if numf &lt; 13 {
             c12.chain([].iter())
@@ -2664,7 +2595,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C13" s="7" t="str">
+      <c r="C13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c14 = if numf &lt; 14 {
             c13.chain([].iter())
@@ -2682,7 +2613,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C14" s="7" t="str">
+      <c r="C14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c15 = if numf &lt; 15 {
             c14.chain([].iter())
@@ -2700,7 +2631,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c16 = if numf &lt; 16 {
             c15.chain([].iter())
@@ -2718,7 +2649,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c17 = if numf &lt; 17 {
             c16.chain([].iter())
@@ -2736,7 +2667,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c18 = if numf &lt; 18 {
             c17.chain([].iter())
@@ -2754,7 +2685,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c19 = if numf &lt; 19 {
             c18.chain([].iter())
@@ -2772,7 +2703,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C19" s="7" t="str">
+      <c r="C19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c20 = if numf &lt; 20 {
             c19.chain([].iter())
@@ -2790,7 +2721,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="str">
+      <c r="C20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c21 = if numf &lt; 21 {
             c20.chain([].iter())
@@ -2808,7 +2739,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c22 = if numf &lt; 22 {
             c21.chain([].iter())
@@ -2826,7 +2757,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="str">
+      <c r="C22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c23 = if numf &lt; 23 {
             c22.chain([].iter())
@@ -2844,7 +2775,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C23" s="7" t="str">
+      <c r="C23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c24 = if numf &lt; 24 {
             c23.chain([].iter())
@@ -2862,7 +2793,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c25 = if numf &lt; 25 {
             c24.chain([].iter())
@@ -2880,7 +2811,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C25" s="7" t="str">
+      <c r="C25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c26 = if numf &lt; 26 {
             c25.chain([].iter())
@@ -2898,7 +2829,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C26" s="7" t="str">
+      <c r="C26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c27 = if numf &lt; 27 {
             c26.chain([].iter())
@@ -2916,7 +2847,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c28 = if numf &lt; 28 {
             c27.chain([].iter())
@@ -2934,7 +2865,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c29 = if numf &lt; 29 {
             c28.chain([].iter())
@@ -2952,7 +2883,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C29" s="7" t="str">
+      <c r="C29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c30 = if numf &lt; 30 {
             c29.chain([].iter())
@@ -2970,7 +2901,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c31 = if numf &lt; 31 {
             c30.chain([].iter())
@@ -2988,7 +2919,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C31" s="7" t="str">
+      <c r="C31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>let c32 = if numf &lt; 32 {
             c31.chain([].iter())

--- a/benches/results/grow.xlsx
+++ b/benches/results/grow.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\uurdev\orx\orx-split-vec\benches\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB84CEB-D57A-41C2-BB9F-8D1B1444CA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD61C2-6158-411D-B806-28DFA4EA2332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="grow" sheetId="1" r:id="rId1"/>
     <sheet name="serial-access" sheetId="6" r:id="rId2"/>
     <sheet name="random-access" sheetId="5" r:id="rId3"/>
+    <sheet name="append-expand" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>std_vec_with_capacity</t>
   </si>
@@ -65,6 +66,15 @@
   </si>
   <si>
     <t>number of elements</t>
+  </si>
+  <si>
+    <t>split_vec_recursive</t>
+  </si>
+  <si>
+    <t>std_vec_with_exact_capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -110,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -374,11 +384,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -401,12 +569,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -484,6 +646,54 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -509,9 +719,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -549,7 +759,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -655,7 +865,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,7 +1007,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1066,44 +1276,44 @@
         <f>C1</f>
         <v>number of elements</v>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="35" t="str">
         <f>D1</f>
         <v>u64 x 1</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="str">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35" t="str">
         <f>F1</f>
         <v>u64 x 16</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <f>C2</f>
         <v>1024</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="25">
         <f>D2</f>
         <v>2.0407000000000003E-3</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="33">
         <f>D27/D$27</f>
         <v>1</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="25">
         <f>F2</f>
         <v>1.0648999999999999E-2</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="30">
         <f>F27/F$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="3">
@@ -1122,13 +1332,13 @@
         <f t="shared" ref="F28" si="2">F3</f>
         <v>2.0448000000000001E-2</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="31">
         <f t="shared" si="1"/>
         <v>1.9201802986195891</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="3">
@@ -1147,63 +1357,63 @@
         <f t="shared" ref="F29" si="3">F4</f>
         <v>1.2414E-2</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="31">
         <f t="shared" si="1"/>
         <v>1.1657432622781483</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="28">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="29">
         <f t="shared" si="0"/>
         <v>3.2768000000000003E-3</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="34">
         <f t="shared" si="1"/>
         <v>1.6057235262409957</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="29">
         <f t="shared" ref="F30" si="4">F5</f>
         <v>1.5285E-2</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="32">
         <f t="shared" si="1"/>
         <v>1.4353460418818671</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="24">
         <f t="shared" si="0"/>
         <v>16384</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="25">
         <f t="shared" si="0"/>
         <v>3.1682000000000002E-2</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <f>D31/D$31</f>
         <v>1</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="25">
         <f t="shared" ref="F31" si="5">F6</f>
         <v>0.54661000000000004</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="30">
         <f t="shared" ref="G31:G34" si="6">F31/F$31</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3">
@@ -1222,13 +1432,13 @@
         <f t="shared" ref="F32" si="8">F7</f>
         <v>0.80680999999999992</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="31">
         <f t="shared" si="6"/>
         <v>1.4760249538061869</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="3">
@@ -1247,63 +1457,63 @@
         <f t="shared" ref="F33" si="9">F8</f>
         <v>0.26712999999999998</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="31">
         <f t="shared" si="6"/>
         <v>0.48870309727227818</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="28">
         <f t="shared" si="0"/>
         <v>16384</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="29">
         <f t="shared" si="0"/>
         <v>3.9875000000000001E-2</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="34">
         <f t="shared" si="7"/>
         <v>1.258601098415504</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <f t="shared" ref="F34" si="10">F9</f>
         <v>0.40232000000000001</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="32">
         <f t="shared" si="6"/>
         <v>0.73602751504729147</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <f t="shared" si="0"/>
         <v>262144</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="25">
         <f t="shared" si="0"/>
         <v>0.84829999999999994</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="33">
         <f>D35/D$35</f>
         <v>1</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="25">
         <f t="shared" ref="F35" si="11">F10</f>
         <v>9.4764999999999997</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="30">
         <f t="shared" ref="G35:G38" si="12">F35/F$35</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="3">
@@ -1322,13 +1532,13 @@
         <f t="shared" ref="F36" si="14">F11</f>
         <v>16.956</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="31">
         <f t="shared" si="12"/>
         <v>1.7892681897324962</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="3">
@@ -1347,63 +1557,63 @@
         <f t="shared" ref="F37" si="15">F12</f>
         <v>6.6300999999999997</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="31">
         <f t="shared" si="12"/>
         <v>0.69963594153959796</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="28">
         <f t="shared" si="0"/>
         <v>262144</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="29">
         <f t="shared" si="0"/>
         <v>0.81852000000000003</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="34">
         <f t="shared" si="13"/>
         <v>0.96489449487209722</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="29">
         <f t="shared" ref="F38:F42" si="16">F13</f>
         <v>9.8628999999999998</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="32">
         <f t="shared" si="12"/>
         <v>1.0407745475650292</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="24">
         <f t="shared" ref="C39" si="17">C14</f>
         <v>4194304</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="25">
         <f t="shared" ref="D39" si="18">D14</f>
         <v>14.356</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="33">
         <f>D39/D$39</f>
         <v>1</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="25">
         <f t="shared" si="16"/>
         <v>162.96</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="30">
         <f t="shared" ref="G39:G42" si="19">F39/F$39</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="3">
@@ -1422,13 +1632,13 @@
         <f t="shared" si="16"/>
         <v>297.17</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="31">
         <f t="shared" si="19"/>
         <v>1.8235763377515954</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="3">
@@ -1447,51 +1657,51 @@
         <f t="shared" si="16"/>
         <v>147.15</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="31">
         <f t="shared" si="19"/>
         <v>0.90298232695139913</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="28">
         <f t="shared" ref="C42" si="25">C17</f>
         <v>4194304</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="29">
         <f t="shared" ref="D42" si="26">D17</f>
         <v>15.792999999999999</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="34">
         <f t="shared" si="22"/>
         <v>1.1000975202006129</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="29">
         <f t="shared" si="16"/>
         <v>154.85</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="32">
         <f t="shared" si="19"/>
         <v>0.95023318605792828</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1537,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7F03E0-41BF-4C59-ABB3-4A77BB8DE656}">
-  <dimension ref="B1:N34"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1784,7 @@
         <v>1.3843E-3</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F7" si="0">J2/1000</f>
+        <f t="shared" ref="F2:F9" si="0">J2/1000</f>
         <v>5.8246000000000001E-3</v>
       </c>
       <c r="H2">
@@ -1592,7 +1802,7 @@
         <v>1024</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D10" si="1">H3/1000</f>
+        <f t="shared" ref="D3:D13" si="1">H3/1000</f>
         <v>1.1573E-3</v>
       </c>
       <c r="F3">
@@ -1630,65 +1840,65 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2.2847000000000003E-2</v>
+        <v>1.1973999999999999E-3</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.10091</v>
+        <v>6.0742000000000001E-3</v>
       </c>
       <c r="H5">
-        <v>22.847000000000001</v>
+        <v>1.1974</v>
       </c>
       <c r="J5">
-        <v>100.91</v>
+        <v>6.0742000000000003</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>16384</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>1.9015000000000001E-2</v>
+        <v>2.2847000000000003E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.10249999999999999</v>
+        <v>0.10091</v>
       </c>
       <c r="H6">
-        <v>19.015000000000001</v>
+        <v>22.847000000000001</v>
       </c>
       <c r="J6">
-        <v>102.5</v>
+        <v>100.91</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>16384</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1.9E-2</v>
+        <v>1.9015000000000001E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0.10249999999999999</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>19.015000000000001</v>
       </c>
       <c r="J7">
         <v>102.5</v>
@@ -1696,470 +1906,650 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>262144</v>
+        <v>16384</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.36402999999999996</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F8">
-        <v>2.4842</v>
+        <f t="shared" si="0"/>
+        <v>0.10249999999999999</v>
       </c>
       <c r="H8">
-        <v>364.03</v>
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>102.5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>262144</v>
+        <v>16384</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.31098999999999999</v>
+        <v>1.9010000000000003E-2</v>
       </c>
       <c r="F9">
-        <v>2.5592999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.10340000000000001</v>
       </c>
       <c r="H9">
-        <v>310.99</v>
+        <v>19.010000000000002</v>
+      </c>
+      <c r="J9">
+        <v>103.4</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>262144</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.30449999999999999</v>
+        <v>0.36402999999999996</v>
       </c>
       <c r="F10">
-        <v>2.5009000000000001</v>
+        <v>2.4842</v>
       </c>
       <c r="H10">
-        <v>304.5</v>
+        <v>364.03</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>4194304</v>
+        <v>262144</v>
       </c>
       <c r="D11">
-        <v>6.6346999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.31098999999999999</v>
       </c>
       <c r="F11">
-        <v>39.786999999999999</v>
+        <v>2.5592999999999999</v>
+      </c>
+      <c r="H11">
+        <v>310.99</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4194304</v>
+        <v>262144</v>
       </c>
       <c r="D12">
-        <v>5.8848000000000003</v>
+        <f t="shared" si="1"/>
+        <v>0.30449999999999999</v>
       </c>
       <c r="F12">
-        <v>40.158000000000001</v>
+        <v>2.5009000000000001</v>
+      </c>
+      <c r="H12">
+        <v>304.5</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>262144</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="F13">
+        <v>2.5104000000000002</v>
+      </c>
+      <c r="H13">
+        <v>305.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4194304</v>
+      </c>
+      <c r="D14">
+        <v>6.6346999999999996</v>
+      </c>
+      <c r="F14">
+        <v>39.786999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4194304</v>
+      </c>
+      <c r="D15">
+        <v>5.8848000000000003</v>
+      </c>
+      <c r="F15">
+        <v>40.158000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>4194304</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>5.6269999999999998</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>40.21</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>4194304</v>
+      </c>
+      <c r="D17">
+        <v>5.6340000000000003</v>
+      </c>
+      <c r="F17">
+        <v>40.17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7" t="str">
-        <f t="shared" ref="C22:D34" si="2">C1</f>
+      <c r="C25" s="7" t="str">
+        <f>C1</f>
         <v>number of elements</v>
       </c>
-      <c r="D22" s="8" t="str">
-        <f t="shared" si="2"/>
+      <c r="D25" s="35" t="str">
+        <f>D1</f>
         <v>u64 x 1</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="str">
-        <f t="shared" ref="F22:F34" si="3">F1</f>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35" t="str">
+        <f>F1</f>
         <v>u64 x 16</v>
       </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="str">
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="str">
         <f>B2</f>
         <v>std_vec</v>
       </c>
-      <c r="C23" s="11">
-        <f t="shared" si="2"/>
+      <c r="C26" s="9">
+        <f>C2</f>
         <v>1024</v>
       </c>
-      <c r="D23" s="12">
-        <f t="shared" si="2"/>
+      <c r="D26" s="10">
+        <f>D2</f>
         <v>1.3843E-3</v>
       </c>
-      <c r="E23" s="13">
-        <f>D23/D$23</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="3"/>
-        <v>5.8246000000000001E-3</v>
-      </c>
-      <c r="G23" s="14">
-        <f t="shared" ref="G23:G25" si="4">F23/F$23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="str">
-        <f t="shared" ref="B24:B34" si="5">B3</f>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="2"/>
-        <v>1024</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="2"/>
-        <v>1.1573E-3</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" ref="E24:E25" si="6">D24/D$23</f>
-        <v>0.83601820414650008</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="3"/>
-        <v>5.9960999999999999E-3</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" si="4"/>
-        <v>1.029444081997047</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C25" s="18">
-        <f t="shared" si="2"/>
-        <v>1024</v>
-      </c>
-      <c r="D25" s="19">
-        <f t="shared" si="2"/>
-        <v>1.1984999999999999E-3</v>
-      </c>
-      <c r="E25" s="20">
-        <f t="shared" si="6"/>
-        <v>0.86578053890052731</v>
-      </c>
-      <c r="F25" s="19">
-        <f t="shared" si="3"/>
-        <v>6.0682000000000002E-3</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="4"/>
-        <v>1.0418226144284586</v>
-      </c>
-      <c r="L25">
-        <f>D25/D23</f>
-        <v>0.86578053890052731</v>
-      </c>
-      <c r="N25">
-        <f>F25/F23</f>
-        <v>1.0418226144284586</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C26" s="11">
-        <f t="shared" si="2"/>
-        <v>16384</v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="2"/>
-        <v>2.2847000000000003E-2</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <f>D26/D$26</f>
         <v>1</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
+        <f>F2</f>
+        <v>5.8246000000000001E-3</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" ref="G26:G29" si="2">F26/F$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="str">
+        <f>B3</f>
+        <v>split_vec_linear</v>
+      </c>
+      <c r="C27" s="2">
+        <f>C3</f>
+        <v>1024</v>
+      </c>
+      <c r="D27" s="4">
+        <f>D3</f>
+        <v>1.1573E-3</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:E29" si="3">D27/D$26</f>
+        <v>0.83601820414650008</v>
+      </c>
+      <c r="F27" s="4">
+        <f>F3</f>
+        <v>5.9960999999999999E-3</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="2"/>
+        <v>1.029444081997047</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="str">
+        <f t="shared" ref="B28:D41" si="4">B4</f>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1984999999999999E-3</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="3"/>
+        <v>0.86578053890052731</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ref="F28:F41" si="5">F4</f>
+        <v>6.0682000000000002E-3</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" si="2"/>
+        <v>1.0418226144284586</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="4"/>
+        <v>1.1973999999999999E-3</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" si="3"/>
+        <v>0.86498591345806541</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="5"/>
+        <v>6.0742000000000001E-3</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" si="2"/>
+        <v>1.042852728084332</v>
+      </c>
+      <c r="L29">
+        <f>D29/D26</f>
+        <v>0.86498591345806541</v>
+      </c>
+      <c r="N29">
+        <f>F29/F26</f>
+        <v>1.042852728084332</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>std_vec</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="4"/>
+        <v>2.2847000000000003E-2</v>
+      </c>
+      <c r="E30" s="11">
+        <f>D30/D$30</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="5"/>
         <v>0.10091</v>
       </c>
-      <c r="G26" s="14">
-        <f>F26/F$26</f>
+      <c r="G30" s="12">
+        <f>F30/F$30</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="str">
+    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>split_vec_linear</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9015000000000001E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" ref="E31:G33" si="6">D31/D$30</f>
+        <v>0.83227557228520144</v>
+      </c>
+      <c r="F31" s="4">
         <f t="shared" si="5"/>
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="6"/>
+        <v>1.0157566148052719</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="6"/>
+        <v>0.83161903094498169</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="5"/>
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="6"/>
+        <v>1.0157566148052719</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="4"/>
+        <v>1.9010000000000003E-2</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="6"/>
+        <v>0.83205672517179496</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="5"/>
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="6"/>
+        <v>1.0246754533742939</v>
+      </c>
+      <c r="L33">
+        <f>D33/D30</f>
+        <v>0.83205672517179496</v>
+      </c>
+      <c r="N33">
+        <f>F33/F30</f>
+        <v>1.0246754533742939</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>std_vec</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="4"/>
+        <v>0.36402999999999996</v>
+      </c>
+      <c r="E34" s="11">
+        <f>D34/D$34</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="5"/>
+        <v>2.4842</v>
+      </c>
+      <c r="G34" s="12">
+        <f>F34/F$34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="str">
+        <f t="shared" si="4"/>
         <v>split_vec_linear</v>
       </c>
-      <c r="C27" s="2">
-        <f t="shared" si="2"/>
-        <v>16384</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="2"/>
-        <v>1.9015000000000001E-2</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" ref="E27:G28" si="7">D27/D$26</f>
-        <v>0.83227557228520144</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="3"/>
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="G27" s="22">
+      <c r="C35" s="2">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="4"/>
+        <v>0.31098999999999999</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" ref="E35:G37" si="7">D35/D$34</f>
+        <v>0.85429772271516091</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5592999999999999</v>
+      </c>
+      <c r="G35" s="20">
         <f t="shared" si="7"/>
-        <v>1.0157566148052719</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="str">
+        <v>1.0302310603011029</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="4"/>
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="7"/>
+        <v>0.83646952174271361</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="5"/>
+        <v>2.5009000000000001</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="7"/>
+        <v>1.0067224861122293</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="4"/>
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="7"/>
+        <v>0.84004065598989108</v>
+      </c>
+      <c r="F37" s="17">
+        <f t="shared" si="5"/>
+        <v>2.5104000000000002</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="7"/>
+        <v>1.0105466548587072</v>
+      </c>
+      <c r="L37">
+        <f>D37/D34</f>
+        <v>0.84004065598989108</v>
+      </c>
+      <c r="N37">
+        <f>F37/F34</f>
+        <v>1.0105466548587072</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>std_vec</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="4"/>
+        <v>4194304</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="4"/>
+        <v>6.6346999999999996</v>
+      </c>
+      <c r="E38" s="11">
+        <f>D38/D$38</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="5"/>
+        <v>39.786999999999999</v>
+      </c>
+      <c r="G38" s="12">
+        <f>F38/F$38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>split_vec_linear</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="4"/>
+        <v>4194304</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="4"/>
+        <v>5.8848000000000003</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" ref="E39:G41" si="8">D39/D$38</f>
+        <v>0.88697303570621133</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="5"/>
+        <v>40.158000000000001</v>
+      </c>
+      <c r="G39" s="20">
+        <f t="shared" si="8"/>
+        <v>1.009324653781386</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="str">
+        <f t="shared" si="4"/>
         <v>split_vec_doubling</v>
       </c>
-      <c r="C28" s="18">
-        <f t="shared" si="2"/>
-        <v>16384</v>
-      </c>
-      <c r="D28" s="19">
-        <f t="shared" si="2"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="E28" s="20">
-        <f t="shared" si="7"/>
-        <v>0.83161903094498169</v>
-      </c>
-      <c r="F28" s="19">
-        <f t="shared" si="3"/>
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="G28" s="23">
-        <f t="shared" si="7"/>
-        <v>1.0157566148052719</v>
-      </c>
-      <c r="L28">
-        <f>D28/D26</f>
-        <v>0.83161903094498169</v>
-      </c>
-      <c r="N28">
-        <f>F28/F26</f>
-        <v>1.0157566148052719</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="str">
+      <c r="C40" s="2">
+        <f t="shared" si="4"/>
+        <v>4194304</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="4"/>
+        <v>5.6269999999999998</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="8"/>
+        <v>0.84811671967082158</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="5"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C29" s="11">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" si="2"/>
-        <v>0.36402999999999996</v>
-      </c>
-      <c r="E29" s="13">
-        <f>D29/D$29</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="12">
-        <f t="shared" si="3"/>
-        <v>2.4842</v>
-      </c>
-      <c r="G29" s="14">
-        <f>F29/F$29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="str">
+        <v>40.21</v>
+      </c>
+      <c r="G40" s="20">
+        <f t="shared" si="8"/>
+        <v>1.0106316133410411</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" si="4"/>
+        <v>4194304</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="4"/>
+        <v>5.6340000000000003</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="8"/>
+        <v>0.84917177867876481</v>
+      </c>
+      <c r="F41" s="17">
         <f t="shared" si="5"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="2"/>
-        <v>0.31098999999999999</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" ref="E30:G31" si="8">D30/D$29</f>
-        <v>0.85429772271516091</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="3"/>
-        <v>2.5592999999999999</v>
-      </c>
-      <c r="G30" s="22">
+        <v>40.17</v>
+      </c>
+      <c r="G41" s="21">
         <f t="shared" si="8"/>
-        <v>1.0302310603011029</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C31" s="18">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D31" s="19">
-        <f t="shared" si="2"/>
-        <v>0.30449999999999999</v>
-      </c>
-      <c r="E31" s="20">
-        <f t="shared" si="8"/>
-        <v>0.83646952174271361</v>
-      </c>
-      <c r="F31" s="19">
-        <f t="shared" si="3"/>
-        <v>2.5009000000000001</v>
-      </c>
-      <c r="G31" s="23">
-        <f t="shared" si="8"/>
-        <v>1.0067224861122293</v>
-      </c>
-      <c r="L31">
-        <f>D31/D29</f>
-        <v>0.83646952174271361</v>
-      </c>
-      <c r="N31">
-        <f>F31/F29</f>
-        <v>1.0067224861122293</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C32" s="11">
-        <f t="shared" si="2"/>
-        <v>4194304</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="2"/>
-        <v>6.6346999999999996</v>
-      </c>
-      <c r="E32" s="13">
-        <f>D32/D$32</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="12">
-        <f t="shared" si="3"/>
-        <v>39.786999999999999</v>
-      </c>
-      <c r="G32" s="14">
-        <f>F32/F$32</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="2"/>
-        <v>4194304</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="2"/>
-        <v>5.8848000000000003</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" ref="E33:G34" si="9">D33/D$32</f>
-        <v>0.88697303570621133</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="3"/>
-        <v>40.158000000000001</v>
-      </c>
-      <c r="G33" s="22">
-        <f t="shared" si="9"/>
-        <v>1.009324653781386</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C34" s="18">
-        <f t="shared" si="2"/>
-        <v>4194304</v>
-      </c>
-      <c r="D34" s="19">
-        <f t="shared" si="2"/>
-        <v>5.6269999999999998</v>
-      </c>
-      <c r="E34" s="20">
-        <f t="shared" si="9"/>
-        <v>0.84811671967082158</v>
-      </c>
-      <c r="F34" s="19">
-        <f t="shared" si="3"/>
-        <v>40.21</v>
-      </c>
-      <c r="G34" s="23">
-        <f t="shared" si="9"/>
-        <v>1.0106316133410411</v>
-      </c>
-      <c r="L34">
-        <f>D34/D32</f>
-        <v>0.84811671967082158</v>
-      </c>
-      <c r="N34">
-        <f>F34/F32</f>
-        <v>1.0106316133410411</v>
+        <v>1.0096262598336141</v>
+      </c>
+      <c r="L41">
+        <f>D41/D38</f>
+        <v>0.84917177867876481</v>
+      </c>
+      <c r="N41">
+        <f>F41/F38</f>
+        <v>1.0096262598336141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
-  <conditionalFormatting sqref="E23:E34 G23:G34">
+  <conditionalFormatting sqref="E26:E41 G26:G41">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2186,7 +2576,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E23:E34 G23:G34</xm:sqref>
+          <xm:sqref>E26:E41 G26:G41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2196,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7FC78D-902C-4DF1-8F50-38A3D8921053}">
-  <dimension ref="B1:N34"/>
+  <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2623,7 @@
         <v>1.1594999999999999E-3</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F7" si="0">J2/1000</f>
+        <f t="shared" ref="F2:F9" si="0">J2/1000</f>
         <v>6.2013999999999993E-3</v>
       </c>
       <c r="H2">
@@ -2251,18 +2641,18 @@
         <v>1024</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="1">H3/1000</f>
+        <f t="shared" ref="D3:D9" si="1">H3/1000</f>
         <v>3.0141E-3</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>8.3306000000000005E-3</v>
+        <v>8.147999999999999E-3</v>
       </c>
       <c r="H3">
         <v>3.0141</v>
       </c>
       <c r="J3">
-        <v>8.3306000000000004</v>
+        <v>8.1479999999999997</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -2274,14 +2664,14 @@
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>1.6335E-3</v>
+        <v>1.6156E-3</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>6.6529999999999992E-3</v>
       </c>
       <c r="H4">
-        <v>1.6335</v>
+        <v>1.6155999999999999</v>
       </c>
       <c r="J4">
         <v>6.6529999999999996</v>
@@ -2289,526 +2679,708 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>1.8957000000000002E-2</v>
+        <v>6.1809999999999999E-3</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.15561000000000003</v>
+        <v>8.4968000000000005E-3</v>
       </c>
       <c r="H5">
-        <v>18.957000000000001</v>
+        <v>6.181</v>
       </c>
       <c r="J5">
-        <v>155.61000000000001</v>
+        <v>8.4968000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>16384</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>4.9530999999999999E-2</v>
+        <v>2.2178999999999997E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.17565999999999998</v>
+        <v>0.15561000000000003</v>
       </c>
       <c r="H6">
-        <v>49.530999999999999</v>
+        <v>22.178999999999998</v>
       </c>
       <c r="J6">
-        <v>175.66</v>
+        <v>155.61000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>16384</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2.8513E-2</v>
+        <v>5.5296999999999999E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.15762999999999999</v>
+        <v>0.17155000000000001</v>
       </c>
       <c r="H7">
-        <v>28.513000000000002</v>
+        <v>55.296999999999997</v>
       </c>
       <c r="J7">
-        <v>157.63</v>
+        <v>171.55</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>16384</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2.8513E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.15762999999999999</v>
+      </c>
+      <c r="H8">
+        <v>28.513000000000002</v>
+      </c>
+      <c r="J8">
+        <v>157.63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>16384</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.15816</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.23221</v>
+      </c>
+      <c r="H9">
+        <v>158.16</v>
+      </c>
+      <c r="J9">
+        <v>232.21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>262144</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <f>540.66/1000</f>
         <v>0.54065999999999992</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>10.193</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>262144</v>
-      </c>
-      <c r="D9">
-        <v>1.0773999999999999</v>
-      </c>
-      <c r="F9">
-        <v>11.03</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>262144</v>
-      </c>
-      <c r="D10">
-        <f>703.37/1000</f>
-        <v>0.70337000000000005</v>
-      </c>
-      <c r="F10">
-        <v>10.824</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>4194304</v>
+        <v>262144</v>
       </c>
       <c r="D11">
-        <v>41.655000000000001</v>
+        <v>1.0773999999999999</v>
       </c>
       <c r="F11">
-        <v>253.34</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4194304</v>
+        <v>262144</v>
       </c>
       <c r="D12">
-        <v>69.358000000000004</v>
+        <f>674.98/1000</f>
+        <v>0.67498000000000002</v>
       </c>
       <c r="F12">
-        <v>267.49</v>
+        <v>10.824</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>262144</v>
+      </c>
+      <c r="D13">
+        <v>3.4293</v>
+      </c>
+      <c r="F13">
+        <v>16.074999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4194304</v>
+      </c>
+      <c r="D14">
+        <v>46.395000000000003</v>
+      </c>
+      <c r="F14">
+        <v>253.34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4194304</v>
+      </c>
+      <c r="D15">
+        <v>69.316000000000003</v>
+      </c>
+      <c r="F15">
+        <v>267.49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>4194304</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>51.656999999999996</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>236.89</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>4194304</v>
+      </c>
+      <c r="D17">
+        <v>188.15</v>
+      </c>
+      <c r="F17">
+        <v>332.54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7" t="str">
-        <f t="shared" ref="C22:C34" si="2">C1</f>
+      <c r="C25" s="7" t="str">
+        <f>C1</f>
         <v>number of elements</v>
       </c>
-      <c r="D22" s="8" t="str">
-        <f t="shared" ref="D22:D34" si="3">D1</f>
+      <c r="D25" s="35" t="str">
+        <f>D1</f>
         <v>u64 x 1</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="str">
-        <f t="shared" ref="F22:F34" si="4">F1</f>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35" t="str">
+        <f>F1</f>
         <v>u64 x 16</v>
       </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="str">
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="str">
         <f>B2</f>
         <v>std_vec</v>
       </c>
-      <c r="C23" s="11">
-        <f t="shared" si="2"/>
+      <c r="C26" s="9">
+        <f>C2</f>
         <v>1024</v>
       </c>
-      <c r="D23" s="12">
-        <f t="shared" si="3"/>
+      <c r="D26" s="10">
+        <f>D2</f>
         <v>1.1594999999999999E-3</v>
       </c>
-      <c r="E23" s="13">
-        <f>D23/D$23</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="4"/>
-        <v>6.2013999999999993E-3</v>
-      </c>
-      <c r="G23" s="14">
-        <f t="shared" ref="G23:G25" si="5">F23/F$23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="str">
-        <f t="shared" ref="B24:B34" si="6">B3</f>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="2"/>
-        <v>1024</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>3.0141E-3</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" ref="E24:E25" si="7">D24/D$23</f>
-        <v>2.5994825355756794</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="4"/>
-        <v>8.3306000000000005E-3</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" si="5"/>
-        <v>1.3433418260392818</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C25" s="18">
-        <f t="shared" si="2"/>
-        <v>1024</v>
-      </c>
-      <c r="D25" s="19">
-        <f t="shared" si="3"/>
-        <v>1.6335E-3</v>
-      </c>
-      <c r="E25" s="20">
-        <f t="shared" si="7"/>
-        <v>1.4087968952134542</v>
-      </c>
-      <c r="F25" s="19">
-        <f t="shared" si="4"/>
-        <v>6.6529999999999992E-3</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="5"/>
-        <v>1.0728222659399491</v>
-      </c>
-      <c r="L25">
-        <f>D25/D23</f>
-        <v>1.4087968952134542</v>
-      </c>
-      <c r="N25">
-        <f>F25/F23</f>
-        <v>1.0728222659399491</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C26" s="11">
-        <f t="shared" si="2"/>
-        <v>16384</v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="3"/>
-        <v>1.8957000000000002E-2</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <f>D26/D$26</f>
         <v>1</v>
       </c>
-      <c r="F26" s="12">
-        <f t="shared" si="4"/>
+      <c r="F26" s="10">
+        <f>F2</f>
+        <v>6.2013999999999993E-3</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" ref="G26:G29" si="2">F26/F$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="str">
+        <f t="shared" ref="B27:B41" si="3">B3</f>
+        <v>split_vec_linear</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" ref="B27:D27" si="4">C3</f>
+        <v>1024</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="4"/>
+        <v>3.0141E-3</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:E29" si="5">D27/D$26</f>
+        <v>2.5994825355756794</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ref="F27:F41" si="6">F3</f>
+        <v>8.147999999999999E-3</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="2"/>
+        <v>1.3138968619989035</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28:D41" si="7">C4</f>
+        <v>1024</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="7"/>
+        <v>1.6156E-3</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="5"/>
+        <v>1.3933592065545495</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="6"/>
+        <v>6.6529999999999992E-3</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" si="2"/>
+        <v>1.0728222659399491</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="7"/>
+        <v>1024</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="7"/>
+        <v>6.1809999999999999E-3</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" si="5"/>
+        <v>5.3307460112117298</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="6"/>
+        <v>8.4968000000000005E-3</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" si="2"/>
+        <v>1.3701422259489795</v>
+      </c>
+      <c r="L29">
+        <f>D29/D26</f>
+        <v>5.3307460112117298</v>
+      </c>
+      <c r="N29">
+        <f>F29/F26</f>
+        <v>1.3701422259489795</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>std_vec</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="7"/>
+        <v>16384</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="7"/>
+        <v>2.2178999999999997E-2</v>
+      </c>
+      <c r="E30" s="11">
+        <f>D30/D$30</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="6"/>
         <v>0.15561000000000003</v>
       </c>
-      <c r="G26" s="14">
-        <f>F26/F$26</f>
+      <c r="G30" s="12">
+        <f>F30/F$30</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="str">
+    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>split_vec_linear</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="7"/>
+        <v>16384</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="7"/>
+        <v>5.5296999999999999E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" ref="E31:E33" si="8">D31/D$30</f>
+        <v>2.4932143018170345</v>
+      </c>
+      <c r="F31" s="4">
         <f t="shared" si="6"/>
+        <v>0.17155000000000001</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" ref="G31:G33" si="9">F31/F$30</f>
+        <v>1.1024355761197866</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="7"/>
+        <v>16384</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="7"/>
+        <v>2.8513E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="8"/>
+        <v>1.285585463726949</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="6"/>
+        <v>0.15762999999999999</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="9"/>
+        <v>1.0129811708759076</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" si="7"/>
+        <v>16384</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="7"/>
+        <v>0.15816</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="8"/>
+        <v>7.1310699310158263</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="6"/>
+        <v>0.23221</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="9"/>
+        <v>1.4922562817299656</v>
+      </c>
+      <c r="L33">
+        <f>D33/D30</f>
+        <v>7.1310699310158263</v>
+      </c>
+      <c r="N33">
+        <f>F33/F30</f>
+        <v>1.4922562817299656</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>std_vec</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="7"/>
+        <v>262144</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="7"/>
+        <v>0.54065999999999992</v>
+      </c>
+      <c r="E34" s="11">
+        <f>D34/D$34</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="6"/>
+        <v>10.193</v>
+      </c>
+      <c r="G34" s="12">
+        <f>F34/F$34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>split_vec_linear</v>
       </c>
-      <c r="C27" s="2">
-        <f t="shared" si="2"/>
-        <v>16384</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="C35" s="2">
+        <f t="shared" si="7"/>
+        <v>262144</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0773999999999999</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" ref="E35:E37" si="10">D35/D$34</f>
+        <v>1.9927496023378835</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="6"/>
+        <v>11.03</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" ref="G35:G37" si="11">F35/F$34</f>
+        <v>1.0821151770823114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>4.9530999999999999E-2</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" ref="E27:G28" si="8">D27/D$26</f>
-        <v>2.6128079337447905</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="4"/>
-        <v>0.17565999999999998</v>
-      </c>
-      <c r="G27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.1288477604267075</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="str">
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="7"/>
+        <v>262144</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="7"/>
+        <v>0.67498000000000002</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2484370954019164</v>
+      </c>
+      <c r="F36" s="4">
         <f t="shared" si="6"/>
+        <v>10.824</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="11"/>
+        <v>1.0619052290787796</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" si="7"/>
+        <v>262144</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="7"/>
+        <v>3.4293</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="10"/>
+        <v>6.3428032404838541</v>
+      </c>
+      <c r="F37" s="17">
+        <f t="shared" si="6"/>
+        <v>16.074999999999999</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="11"/>
+        <v>1.5770626900814284</v>
+      </c>
+      <c r="L37">
+        <f>D37/D34</f>
+        <v>6.3428032404838541</v>
+      </c>
+      <c r="N37">
+        <f>F37/F34</f>
+        <v>1.5770626900814284</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>std_vec</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="7"/>
+        <v>4194304</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="7"/>
+        <v>46.395000000000003</v>
+      </c>
+      <c r="E38" s="11">
+        <f>D38/D$38</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="6"/>
+        <v>253.34</v>
+      </c>
+      <c r="G38" s="12">
+        <f>F38/F$38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>split_vec_linear</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="7"/>
+        <v>4194304</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="7"/>
+        <v>69.316000000000003</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" ref="E39:E41" si="12">D39/D$38</f>
+        <v>1.4940403060674641</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="6"/>
+        <v>267.49</v>
+      </c>
+      <c r="G39" s="20">
+        <f t="shared" ref="G39:G41" si="13">F39/F$38</f>
+        <v>1.0558537933212284</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>split_vec_doubling</v>
       </c>
-      <c r="C28" s="18">
-        <f t="shared" si="2"/>
-        <v>16384</v>
-      </c>
-      <c r="D28" s="19">
+      <c r="C40" s="2">
+        <f t="shared" si="7"/>
+        <v>4194304</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="7"/>
+        <v>51.656999999999996</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="12"/>
+        <v>1.113417394115745</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="6"/>
+        <v>236.89</v>
+      </c>
+      <c r="G40" s="20">
+        <f t="shared" si="13"/>
+        <v>0.93506749822373092</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>2.8513E-2</v>
-      </c>
-      <c r="E28" s="20">
-        <f t="shared" si="8"/>
-        <v>1.5040881996096427</v>
-      </c>
-      <c r="F28" s="19">
-        <f t="shared" si="4"/>
-        <v>0.15762999999999999</v>
-      </c>
-      <c r="G28" s="23">
-        <f t="shared" si="8"/>
-        <v>1.0129811708759076</v>
-      </c>
-      <c r="L28">
-        <f>D28/D26</f>
-        <v>1.5040881996096427</v>
-      </c>
-      <c r="N28">
-        <f>F28/F26</f>
-        <v>1.0129811708759076</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="str">
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" si="7"/>
+        <v>4194304</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="7"/>
+        <v>188.15</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="12"/>
+        <v>4.0553939002047636</v>
+      </c>
+      <c r="F41" s="17">
         <f t="shared" si="6"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C29" s="11">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" si="3"/>
-        <v>0.54065999999999992</v>
-      </c>
-      <c r="E29" s="13">
-        <f>D29/D$29</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="12">
-        <f t="shared" si="4"/>
-        <v>10.193</v>
-      </c>
-      <c r="G29" s="14">
-        <f>F29/F$29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="3"/>
-        <v>1.0773999999999999</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" ref="E30:G31" si="9">D30/D$29</f>
-        <v>1.9927496023378835</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="4"/>
-        <v>11.03</v>
-      </c>
-      <c r="G30" s="22">
-        <f t="shared" si="9"/>
-        <v>1.0821151770823114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C31" s="18">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-      <c r="D31" s="19">
-        <f t="shared" si="3"/>
-        <v>0.70337000000000005</v>
-      </c>
-      <c r="E31" s="20">
-        <f t="shared" si="9"/>
-        <v>1.3009469907150522</v>
-      </c>
-      <c r="F31" s="19">
-        <f t="shared" si="4"/>
-        <v>10.824</v>
-      </c>
-      <c r="G31" s="23">
-        <f t="shared" si="9"/>
-        <v>1.0619052290787796</v>
-      </c>
-      <c r="L31">
-        <f>D31/D29</f>
-        <v>1.3009469907150522</v>
-      </c>
-      <c r="N31">
-        <f>F31/F29</f>
-        <v>1.0619052290787796</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C32" s="11">
-        <f t="shared" si="2"/>
-        <v>4194304</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="3"/>
-        <v>41.655000000000001</v>
-      </c>
-      <c r="E32" s="13">
-        <f>D32/D$32</f>
-        <v>1</v>
-      </c>
-      <c r="F32" s="12">
-        <f t="shared" si="4"/>
-        <v>253.34</v>
-      </c>
-      <c r="G32" s="14">
-        <f>F32/F$32</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="2"/>
-        <v>4194304</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="3"/>
-        <v>69.358000000000004</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" ref="E33:G34" si="10">D33/D$32</f>
-        <v>1.6650582163005643</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="4"/>
-        <v>267.49</v>
-      </c>
-      <c r="G33" s="22">
-        <f t="shared" si="10"/>
-        <v>1.0558537933212284</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C34" s="18">
-        <f t="shared" si="2"/>
-        <v>4194304</v>
-      </c>
-      <c r="D34" s="19">
-        <f t="shared" si="3"/>
-        <v>51.656999999999996</v>
-      </c>
-      <c r="E34" s="20">
-        <f t="shared" si="10"/>
-        <v>1.2401152322650342</v>
-      </c>
-      <c r="F34" s="19">
-        <f t="shared" si="4"/>
-        <v>236.89</v>
-      </c>
-      <c r="G34" s="23">
-        <f t="shared" si="10"/>
-        <v>0.93506749822373092</v>
-      </c>
-      <c r="L34">
-        <f>D34/D32</f>
-        <v>1.2401152322650342</v>
-      </c>
-      <c r="N34">
-        <f>F34/F32</f>
-        <v>0.93506749822373092</v>
+        <v>332.54</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" si="13"/>
+        <v>1.3126233520170523</v>
+      </c>
+      <c r="L41">
+        <f>D41/D38</f>
+        <v>4.0553939002047636</v>
+      </c>
+      <c r="N41">
+        <f>F41/F38</f>
+        <v>1.3126233520170523</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f>AVERAGE(L29:L41)</f>
+        <v>5.715003270729043</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
-  <conditionalFormatting sqref="E23:E34 G23:G34">
+  <conditionalFormatting sqref="E26:E41 G26:G41">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2835,7 +3407,653 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E23:E34 G23:G34</xm:sqref>
+          <xm:sqref>E26:E41 G26:G41</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE9CB73-5432-4CE0-9583-0D8A627C9947}">
+  <dimension ref="B1:L41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1024</v>
+      </c>
+      <c r="D2">
+        <f>F2/1000</f>
+        <v>2.7594999999999998E-2</v>
+      </c>
+      <c r="F2">
+        <v>27.594999999999999</v>
+      </c>
+      <c r="H2">
+        <v>6.2013999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1024</v>
+      </c>
+      <c r="D3">
+        <f>F3/1000</f>
+        <v>1.0868000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>10.868</v>
+      </c>
+      <c r="H3">
+        <v>8.1479999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1024</v>
+      </c>
+      <c r="D4">
+        <f>F4/1000</f>
+        <v>1.6095999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>16.096</v>
+      </c>
+      <c r="H4">
+        <v>6.6529999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1024</v>
+      </c>
+      <c r="D5">
+        <f>F5/1000</f>
+        <v>1.3842000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.3842000000000001</v>
+      </c>
+      <c r="H5">
+        <v>8.4968000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>B2</f>
+        <v>std_vec_new</v>
+      </c>
+      <c r="C6">
+        <v>16384</v>
+      </c>
+      <c r="D6">
+        <f>F6/1000</f>
+        <v>1.6440999999999999</v>
+      </c>
+      <c r="F6">
+        <v>1644.1</v>
+      </c>
+      <c r="H6">
+        <v>155.61000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f t="shared" ref="B7:B17" si="0">B3</f>
+        <v>std_vec_with_exact_capacity</v>
+      </c>
+      <c r="C7">
+        <v>16384</v>
+      </c>
+      <c r="D7">
+        <f>F7/1000</f>
+        <v>0.75737999999999994</v>
+      </c>
+      <c r="F7">
+        <v>757.38</v>
+      </c>
+      <c r="H7">
+        <v>171.55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C8">
+        <v>16384</v>
+      </c>
+      <c r="D8">
+        <f>F8/1000</f>
+        <v>0.65244000000000002</v>
+      </c>
+      <c r="F8">
+        <v>652.44000000000005</v>
+      </c>
+      <c r="H8">
+        <v>157.63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C9">
+        <v>16384</v>
+      </c>
+      <c r="D9">
+        <f>F9/1000</f>
+        <v>2.1753999999999996E-3</v>
+      </c>
+      <c r="F9">
+        <v>2.1753999999999998</v>
+      </c>
+      <c r="H9">
+        <v>232.21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>std_vec_new</v>
+      </c>
+      <c r="C10">
+        <v>262144</v>
+      </c>
+      <c r="D10">
+        <v>26.672000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>std_vec_with_exact_capacity</v>
+      </c>
+      <c r="C11">
+        <v>262144</v>
+      </c>
+      <c r="D11">
+        <v>13.867000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C12">
+        <v>262144</v>
+      </c>
+      <c r="D12">
+        <v>13.747999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C13">
+        <v>262144</v>
+      </c>
+      <c r="D13">
+        <v>9.1730000000000006E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>std_vec_new</v>
+      </c>
+      <c r="C14">
+        <v>4194304</v>
+      </c>
+      <c r="D14">
+        <v>497.51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>std_vec_with_exact_capacity</v>
+      </c>
+      <c r="C15">
+        <v>4194304</v>
+      </c>
+      <c r="D15">
+        <v>224.62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C16">
+        <v>4194304</v>
+      </c>
+      <c r="D16">
+        <v>227.58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C17">
+        <v>4194304</v>
+      </c>
+      <c r="D17">
+        <v>6.6280000000000002E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="38" t="str">
+        <f>C1</f>
+        <v>number of elements</v>
+      </c>
+      <c r="D25" s="39" t="str">
+        <f>D1</f>
+        <v>u64 x 1</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41" t="str">
+        <f>B2</f>
+        <v>std_vec_new</v>
+      </c>
+      <c r="C26" s="9">
+        <f>C2</f>
+        <v>1024</v>
+      </c>
+      <c r="D26" s="10">
+        <f>D2</f>
+        <v>2.7594999999999998E-2</v>
+      </c>
+      <c r="E26" s="42">
+        <f>D26/D$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="43" t="str">
+        <f t="shared" ref="B27:D41" si="1">B3</f>
+        <v>std_vec_with_exact_capacity</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0868000000000001E-2</v>
+      </c>
+      <c r="E27" s="44">
+        <f t="shared" ref="E27:E29" si="2">D27/D$26</f>
+        <v>0.39383946367095496</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6095999999999999E-2</v>
+      </c>
+      <c r="E28" s="44">
+        <f t="shared" si="2"/>
+        <v>0.58329407501358943</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="1"/>
+        <v>1.3842000000000001E-3</v>
+      </c>
+      <c r="E29" s="46">
+        <f t="shared" si="2"/>
+        <v>5.016126109802501E-2</v>
+      </c>
+      <c r="J29">
+        <f>D29/D26</f>
+        <v>5.016126109802501E-2</v>
+      </c>
+      <c r="L29" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>std_vec_new</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6440999999999999</v>
+      </c>
+      <c r="E30" s="42">
+        <f>D30/D$30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>std_vec_with_exact_capacity</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75737999999999994</v>
+      </c>
+      <c r="E31" s="44">
+        <f t="shared" ref="E31:E33" si="3">D31/D$30</f>
+        <v>0.46066540964661518</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>0.65244000000000002</v>
+      </c>
+      <c r="E32" s="44">
+        <f t="shared" si="3"/>
+        <v>0.39683717535429724</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="1"/>
+        <v>2.1753999999999996E-3</v>
+      </c>
+      <c r="E33" s="46">
+        <f t="shared" si="3"/>
+        <v>1.3231555258195972E-3</v>
+      </c>
+      <c r="J33">
+        <f>D33/D30</f>
+        <v>1.3231555258195972E-3</v>
+      </c>
+      <c r="L33" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>std_vec_new</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="1"/>
+        <v>26.672000000000001</v>
+      </c>
+      <c r="E34" s="42">
+        <f>D34/D$34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>std_vec_with_exact_capacity</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>13.867000000000001</v>
+      </c>
+      <c r="E35" s="44">
+        <f t="shared" ref="E35:E37" si="4">D35/D$34</f>
+        <v>0.51990851829634077</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="1"/>
+        <v>13.747999999999999</v>
+      </c>
+      <c r="E36" s="44">
+        <f t="shared" si="4"/>
+        <v>0.5154469106178764</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="45" t="str">
+        <f t="shared" si="1"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="1"/>
+        <v>9.1730000000000006E-3</v>
+      </c>
+      <c r="E37" s="46">
+        <f t="shared" si="4"/>
+        <v>3.4391871625674865E-4</v>
+      </c>
+      <c r="J37">
+        <f>D37/D34</f>
+        <v>3.4391871625674865E-4</v>
+      </c>
+      <c r="L37" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v>std_vec_new</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="1"/>
+        <v>4194304</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="1"/>
+        <v>497.51</v>
+      </c>
+      <c r="E38" s="42">
+        <f>D38/D$38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>std_vec_with_exact_capacity</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>4194304</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="1"/>
+        <v>224.62</v>
+      </c>
+      <c r="E39" s="44">
+        <f t="shared" ref="E39:E41" si="5">D39/D$38</f>
+        <v>0.45148841229322023</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>split_vec_doubling</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="1"/>
+        <v>4194304</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="1"/>
+        <v>227.58</v>
+      </c>
+      <c r="E40" s="44">
+        <f t="shared" si="5"/>
+        <v>0.4574380414464031</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>split_vec_recursive</v>
+      </c>
+      <c r="C41" s="48">
+        <f t="shared" si="1"/>
+        <v>4194304</v>
+      </c>
+      <c r="D41" s="49">
+        <f t="shared" si="1"/>
+        <v>6.6280000000000002E-3</v>
+      </c>
+      <c r="E41" s="50">
+        <f t="shared" si="5"/>
+        <v>1.3322345279491869E-5</v>
+      </c>
+      <c r="J41">
+        <f>D41/D38</f>
+        <v>1.3322345279491869E-5</v>
+      </c>
+      <c r="L41" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D25:E25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E26:E41">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFCC3300"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB8BD6CE-FEC1-4CA8-8DC9-599965DD1522}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EB8BD6CE-FEC1-4CA8-8DC9-599965DD1522}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E26:E41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/benches/results/grow.xlsx
+++ b/benches/results/grow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\uurdev\orx\orx-split-vec\benches\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\uarikan\repos\orx\orx-split-vec\benches\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD61C2-6158-411D-B806-28DFA4EA2332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77EB2A3-C5A6-46BC-AAF4-1215C2D54F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
+    <workbookView xWindow="54495" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="grow" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
-  <si>
-    <t>std_vec_with_capacity</t>
-  </si>
-  <si>
-    <t>std_vec_new</t>
-  </si>
-  <si>
-    <t>split_vec_linear</t>
-  </si>
-  <si>
-    <t>split_vec_doubling</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>u64 x 1</t>
   </si>
@@ -62,19 +50,28 @@
     <t>vector</t>
   </si>
   <si>
-    <t>std_vec</t>
-  </si>
-  <si>
     <t>number of elements</t>
   </si>
   <si>
-    <t>split_vec_recursive</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>std_vec_with_exact_capacity</t>
+    <t>SplitVec&lt;_, Linear&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>SplitVec&lt;_, Doubling&gt;</t>
+  </si>
+  <si>
+    <t>SplitVec&lt;_, Recursive&gt;</t>
+  </si>
+  <si>
+    <t>Vec::new</t>
+  </si>
+  <si>
+    <t>Vec::with_capacity</t>
+  </si>
+  <si>
+    <t>Vec</t>
   </si>
 </sst>
 </file>
@@ -84,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,14 +96,27 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,12 +125,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1C1C1C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -140,17 +162,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -161,11 +183,11 @@
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -173,26 +195,26 @@
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
-      <right style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
-      <top style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -204,8 +226,8 @@
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -214,18 +236,18 @@
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
-      <right style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
-      <top style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
@@ -238,23 +260,23 @@
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
-      <right style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -266,95 +288,8 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -363,182 +298,11 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,155 +310,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,6 +411,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FF1C1C1C"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFF3300"/>
       <color rgb="FFCC3300"/>
     </mruColors>
   </colors>
@@ -719,9 +430,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -759,7 +470,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -865,7 +576,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,34 +726,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B49DD08-8011-4940-BE17-2C7933D323C6}">
-  <dimension ref="B1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="7" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1024</v>
@@ -1054,9 +765,9 @@
         <v>1.0648999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1024</v>
@@ -1068,9 +779,9 @@
         <v>2.0448000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1024</v>
@@ -1082,9 +793,9 @@
         <v>1.2414E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1024</v>
@@ -1096,9 +807,10 @@
         <v>1.5285E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f>B2</f>
+        <v>Vec::with_capacity</v>
       </c>
       <c r="C6">
         <v>16384</v>
@@ -1110,9 +822,10 @@
         <v>0.54661000000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1</v>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f t="shared" ref="B7:B17" si="0">B3</f>
+        <v>Vec::new</v>
       </c>
       <c r="C7">
         <v>16384</v>
@@ -1124,9 +837,10 @@
         <v>0.80680999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>2</v>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
       </c>
       <c r="C8">
         <v>16384</v>
@@ -1138,9 +852,10 @@
         <v>0.26712999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C9">
         <v>16384</v>
@@ -1152,9 +867,10 @@
         <v>0.40232000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>0</v>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Vec::with_capacity</v>
       </c>
       <c r="C10">
         <v>262144</v>
@@ -1167,9 +883,10 @@
         <v>9.4764999999999997</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>1</v>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vec::new</v>
       </c>
       <c r="C11">
         <v>262144</v>
@@ -1181,9 +898,10 @@
         <v>16.956</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>2</v>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
       </c>
       <c r="C12">
         <v>262144</v>
@@ -1196,9 +914,10 @@
         <v>6.6300999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>3</v>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C13">
         <v>262144</v>
@@ -1211,9 +930,10 @@
         <v>9.8628999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Vec::with_capacity</v>
       </c>
       <c r="C14">
         <v>4194304</v>
@@ -1225,9 +945,10 @@
         <v>162.96</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>1</v>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Vec::new</v>
       </c>
       <c r="C15">
         <v>4194304</v>
@@ -1239,9 +960,10 @@
         <v>297.17</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>2</v>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
       </c>
       <c r="C16">
         <v>4194304</v>
@@ -1253,9 +975,10 @@
         <v>147.15</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>3</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C17">
         <v>4194304</v>
@@ -1267,441 +990,466 @@
         <v>154.85</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7" t="str">
+    <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="24" t="str">
         <f>C1</f>
         <v>number of elements</v>
       </c>
-      <c r="D26" s="35" t="str">
+      <c r="D26" s="30" t="str">
         <f>D1</f>
         <v>u64 x 1</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35" t="str">
+      <c r="E26" s="30"/>
+      <c r="F26" s="30" t="str">
         <f>F1</f>
         <v>u64 x 16</v>
       </c>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="24">
+      <c r="G26" s="31"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="9" t="str">
+        <f>B2</f>
+        <v>Vec::with_capacity</v>
+      </c>
+      <c r="C27" s="28">
         <f>C2</f>
         <v>1024</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="11">
         <f>D2</f>
         <v>2.0407000000000003E-3</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="12">
         <f>D27/D$27</f>
         <v>1</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="11">
         <f>F2</f>
         <v>1.0648999999999999E-2</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="13">
         <f>F27/F$27</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" ref="C28:D38" si="0">C3</f>
-        <v>1024</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="14" t="str">
+        <f t="shared" ref="B28:B42" si="1">B3</f>
+        <v>Vec::new</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="5">
+        <f t="shared" ref="C28:D38" si="2">D3</f>
         <v>3.0747000000000001E-3</v>
       </c>
-      <c r="E28" s="5">
-        <f t="shared" ref="E28:G30" si="1">D28/D$27</f>
+      <c r="E28" s="6">
+        <f t="shared" ref="E28:G30" si="3">D28/D$27</f>
         <v>1.506688881266232</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" ref="F28" si="2">F3</f>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28" si="4">F3</f>
         <v>2.0448000000000001E-2</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="21">
+        <f t="shared" si="3"/>
+        <v>1.9201802986195891</v>
+      </c>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>1.9201802986195891</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="0"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="5">
+        <f t="shared" si="2"/>
         <v>2.4805999999999999E-3</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2155632871073649</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" ref="F29" si="5">F4</f>
+        <v>1.2414E-2</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="3"/>
+        <v>1.1657432622781483</v>
+      </c>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>1.2155632871073649</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" ref="F29" si="3">F4</f>
-        <v>1.2414E-2</v>
-      </c>
-      <c r="G29" s="31">
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="18">
+        <f t="shared" si="2"/>
+        <v>3.2768000000000003E-3</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="3"/>
+        <v>1.6057235262409957</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" ref="F30" si="6">F5</f>
+        <v>1.5285E-2</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="3"/>
+        <v>1.4353460418818671</v>
+      </c>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>1.1657432622781483</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="28">
-        <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-      <c r="D30" s="29">
-        <f t="shared" si="0"/>
-        <v>3.2768000000000003E-3</v>
-      </c>
-      <c r="E30" s="34">
-        <f t="shared" si="1"/>
-        <v>1.6057235262409957</v>
-      </c>
-      <c r="F30" s="29">
-        <f t="shared" ref="F30" si="4">F5</f>
-        <v>1.5285E-2</v>
-      </c>
-      <c r="G30" s="32">
-        <f t="shared" si="1"/>
-        <v>1.4353460418818671</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="24">
-        <f t="shared" si="0"/>
+        <v>Vec::with_capacity</v>
+      </c>
+      <c r="C31" s="28">
+        <f t="shared" si="2"/>
         <v>16384</v>
       </c>
-      <c r="D31" s="25">
-        <f t="shared" si="0"/>
+      <c r="D31" s="11">
+        <f t="shared" si="2"/>
         <v>3.1682000000000002E-2</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="12">
         <f>D31/D$31</f>
         <v>1</v>
       </c>
-      <c r="F31" s="25">
-        <f t="shared" ref="F31" si="5">F6</f>
+      <c r="F31" s="11">
+        <f t="shared" ref="F31" si="7">F6</f>
         <v>0.54661000000000004</v>
       </c>
-      <c r="G31" s="30">
-        <f t="shared" ref="G31:G34" si="6">F31/F$31</f>
+      <c r="G31" s="13">
+        <f t="shared" ref="G31:G34" si="8">F31/F$31</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="0"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Vec::new</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="5">
+        <f t="shared" si="2"/>
         <v>4.1688999999999997E-2</v>
       </c>
-      <c r="E32" s="5">
-        <f t="shared" ref="E32:E34" si="7">D32/D$31</f>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:E34" si="9">D32/D$31</f>
         <v>1.3158575847484375</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" ref="F32" si="8">F7</f>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32" si="10">F7</f>
         <v>0.80680999999999992</v>
       </c>
-      <c r="G32" s="31">
-        <f t="shared" si="6"/>
+      <c r="G32" s="21">
+        <f t="shared" si="8"/>
         <v>1.4760249538061869</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="0"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="5">
+        <f t="shared" si="2"/>
         <v>4.2616999999999995E-2</v>
       </c>
-      <c r="E33" s="5">
-        <f t="shared" si="7"/>
+      <c r="E33" s="6">
+        <f t="shared" si="9"/>
         <v>1.3451486648570163</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" ref="F33" si="9">F8</f>
+      <c r="F33" s="5">
+        <f t="shared" ref="F33" si="11">F8</f>
         <v>0.26712999999999998</v>
       </c>
-      <c r="G33" s="31">
-        <f t="shared" si="6"/>
+      <c r="G33" s="21">
+        <f t="shared" si="8"/>
         <v>0.48870309727227818</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="28">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-      <c r="D34" s="29">
-        <f t="shared" si="0"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="18">
+        <f t="shared" si="2"/>
         <v>3.9875000000000001E-2</v>
       </c>
-      <c r="E34" s="34">
-        <f t="shared" si="7"/>
+      <c r="E34" s="19">
+        <f t="shared" si="9"/>
         <v>1.258601098415504</v>
       </c>
-      <c r="F34" s="29">
-        <f t="shared" ref="F34" si="10">F9</f>
+      <c r="F34" s="18">
+        <f t="shared" ref="F34" si="12">F9</f>
         <v>0.40232000000000001</v>
       </c>
-      <c r="G34" s="32">
-        <f t="shared" si="6"/>
+      <c r="G34" s="22">
+        <f t="shared" si="8"/>
         <v>0.73602751504729147</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="24">
-        <f t="shared" si="0"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Vec::with_capacity</v>
+      </c>
+      <c r="C35" s="28">
+        <f t="shared" si="2"/>
         <v>262144</v>
       </c>
-      <c r="D35" s="25">
-        <f t="shared" si="0"/>
+      <c r="D35" s="11">
+        <f t="shared" si="2"/>
         <v>0.84829999999999994</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="12">
         <f>D35/D$35</f>
         <v>1</v>
       </c>
-      <c r="F35" s="25">
-        <f t="shared" ref="F35" si="11">F10</f>
+      <c r="F35" s="11">
+        <f t="shared" ref="F35" si="13">F10</f>
         <v>9.4764999999999997</v>
       </c>
-      <c r="G35" s="30">
-        <f t="shared" ref="G35:G38" si="12">F35/F$35</f>
+      <c r="G35" s="13">
+        <f t="shared" ref="G35:G38" si="14">F35/F$35</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="0"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Vec::new</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="5">
+        <f t="shared" si="2"/>
         <v>1.1892</v>
       </c>
-      <c r="E36" s="5">
-        <f t="shared" ref="E36:E38" si="13">D36/D$35</f>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36:E38" si="15">D36/D$35</f>
         <v>1.4018625486266652</v>
       </c>
-      <c r="F36" s="4">
-        <f t="shared" ref="F36" si="14">F11</f>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36" si="16">F11</f>
         <v>16.956</v>
       </c>
-      <c r="G36" s="31">
-        <f t="shared" si="12"/>
+      <c r="G36" s="21">
+        <f t="shared" si="14"/>
         <v>1.7892681897324962</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="D37" s="4">
-        <f t="shared" si="0"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="5">
+        <f t="shared" si="2"/>
         <v>0.70789999999999997</v>
       </c>
-      <c r="E37" s="5">
-        <f t="shared" si="13"/>
+      <c r="E37" s="6">
+        <f t="shared" si="15"/>
         <v>0.83449251444064598</v>
       </c>
-      <c r="F37" s="4">
-        <f t="shared" ref="F37" si="15">F12</f>
+      <c r="F37" s="5">
+        <f t="shared" ref="F37" si="17">F12</f>
         <v>6.6300999999999997</v>
       </c>
-      <c r="G37" s="31">
-        <f t="shared" si="12"/>
+      <c r="G37" s="21">
+        <f t="shared" si="14"/>
         <v>0.69963594153959796</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="28">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="D38" s="29">
-        <f t="shared" si="0"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25"/>
+      <c r="B38" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="18">
+        <f t="shared" si="2"/>
         <v>0.81852000000000003</v>
       </c>
-      <c r="E38" s="34">
-        <f t="shared" si="13"/>
+      <c r="E38" s="19">
+        <f t="shared" si="15"/>
         <v>0.96489449487209722</v>
       </c>
-      <c r="F38" s="29">
-        <f t="shared" ref="F38:F42" si="16">F13</f>
+      <c r="F38" s="18">
+        <f t="shared" ref="F38:F42" si="18">F13</f>
         <v>9.8628999999999998</v>
       </c>
-      <c r="G38" s="32">
-        <f t="shared" si="12"/>
+      <c r="G38" s="22">
+        <f t="shared" si="14"/>
         <v>1.0407745475650292</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="24">
-        <f t="shared" ref="C39" si="17">C14</f>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>Vec::with_capacity</v>
+      </c>
+      <c r="C39" s="28">
+        <f t="shared" ref="C39" si="19">C14</f>
         <v>4194304</v>
       </c>
-      <c r="D39" s="25">
-        <f t="shared" ref="D39" si="18">D14</f>
+      <c r="D39" s="11">
+        <f t="shared" ref="D39" si="20">D14</f>
         <v>14.356</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="12">
         <f>D39/D$39</f>
         <v>1</v>
       </c>
-      <c r="F39" s="25">
-        <f t="shared" si="16"/>
+      <c r="F39" s="11">
+        <f t="shared" si="18"/>
         <v>162.96</v>
       </c>
-      <c r="G39" s="30">
-        <f t="shared" ref="G39:G42" si="19">F39/F$39</f>
+      <c r="G39" s="13">
+        <f t="shared" ref="G39:G42" si="21">F39/F$39</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" ref="C40" si="20">C15</f>
-        <v>4194304</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" ref="D40" si="21">D15</f>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Vec::new</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="5">
+        <f t="shared" ref="D40" si="22">D15</f>
         <v>22.524999999999999</v>
       </c>
-      <c r="E40" s="5">
-        <f t="shared" ref="E40:E42" si="22">D40/D$39</f>
+      <c r="E40" s="6">
+        <f t="shared" ref="E40:E42" si="23">D40/D$39</f>
         <v>1.5690303705767623</v>
       </c>
-      <c r="F40" s="4">
-        <f t="shared" si="16"/>
+      <c r="F40" s="5">
+        <f t="shared" si="18"/>
         <v>297.17</v>
       </c>
-      <c r="G40" s="31">
-        <f t="shared" si="19"/>
+      <c r="G40" s="21">
+        <f t="shared" si="21"/>
         <v>1.8235763377515954</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" ref="C41" si="23">C16</f>
-        <v>4194304</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="5">
         <f t="shared" ref="D41" si="24">D16</f>
         <v>12.53</v>
       </c>
-      <c r="E41" s="5">
-        <f t="shared" si="22"/>
+      <c r="E41" s="6">
+        <f t="shared" si="23"/>
         <v>0.87280579548620785</v>
       </c>
-      <c r="F41" s="4">
-        <f t="shared" si="16"/>
+      <c r="F41" s="5">
+        <f t="shared" si="18"/>
         <v>147.15</v>
       </c>
-      <c r="G41" s="31">
-        <f t="shared" si="19"/>
+      <c r="G41" s="21">
+        <f t="shared" si="21"/>
         <v>0.90298232695139913</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="28">
-        <f t="shared" ref="C42" si="25">C17</f>
-        <v>4194304</v>
-      </c>
-      <c r="D42" s="29">
-        <f t="shared" ref="D42" si="26">D17</f>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="18">
+        <f t="shared" ref="D42" si="25">D17</f>
         <v>15.792999999999999</v>
       </c>
-      <c r="E42" s="34">
-        <f t="shared" si="22"/>
+      <c r="E42" s="19">
+        <f t="shared" si="23"/>
         <v>1.1000975202006129</v>
       </c>
-      <c r="F42" s="29">
-        <f t="shared" si="16"/>
+      <c r="F42" s="18">
+        <f t="shared" si="18"/>
         <v>154.85</v>
       </c>
-      <c r="G42" s="32">
-        <f t="shared" si="19"/>
+      <c r="G42" s="22">
+        <f t="shared" si="21"/>
         <v>0.95023318605792828</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1711,9 +1459,9 @@
   <conditionalFormatting sqref="G27:G42 E27:E42">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
         <cfvo type="max"/>
-        <color rgb="FFCC3300"/>
+        <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -1728,10 +1476,12 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5265352C-8BC6-4B57-8DB8-AC8413477E61}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="max"/>
+              <x14:borderColor rgb="FFFF9900"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
@@ -1747,34 +1497,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7F03E0-41BF-4C59-ABB3-4A77BB8DE656}">
-  <dimension ref="B1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="7" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1024</v>
@@ -1794,9 +1544,9 @@
         <v>5.8246000000000002</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1024</v>
@@ -1816,9 +1566,9 @@
         <v>5.9961000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1024</v>
@@ -1838,9 +1588,9 @@
         <v>6.0682</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1024</v>
@@ -1860,9 +1610,10 @@
         <v>6.0742000000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f>B2</f>
+        <v>Vec</v>
       </c>
       <c r="C6">
         <v>16384</v>
@@ -1882,9 +1633,10 @@
         <v>100.91</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f t="shared" ref="B7:B17" si="2">B3</f>
+        <v>SplitVec&lt;_, Linear&gt;</v>
       </c>
       <c r="C7">
         <v>16384</v>
@@ -1904,9 +1656,10 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C8">
         <v>16384</v>
@@ -1926,9 +1679,10 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
       </c>
       <c r="C9">
         <v>16384</v>
@@ -1948,9 +1702,10 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec</v>
       </c>
       <c r="C10">
         <v>262144</v>
@@ -1966,9 +1721,10 @@
         <v>364.03</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>2</v>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
       </c>
       <c r="C11">
         <v>262144</v>
@@ -1984,9 +1740,10 @@
         <v>310.99</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>3</v>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C12">
         <v>262144</v>
@@ -2002,9 +1759,10 @@
         <v>304.5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
       </c>
       <c r="C13">
         <v>262144</v>
@@ -2020,9 +1778,10 @@
         <v>305.8</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>7</v>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec</v>
       </c>
       <c r="C14">
         <v>4194304</v>
@@ -2034,9 +1793,10 @@
         <v>39.786999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>2</v>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
       </c>
       <c r="C15">
         <v>4194304</v>
@@ -2048,9 +1808,10 @@
         <v>40.158000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>3</v>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C16">
         <v>4194304</v>
@@ -2062,9 +1823,10 @@
         <v>40.21</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>9</v>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
       </c>
       <c r="C17">
         <v>4194304</v>
@@ -2076,129 +1838,139 @@
         <v>40.17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7" t="str">
-        <f>C1</f>
+    <row r="24" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f t="shared" ref="C25:D27" si="3">C1</f>
         <v>number of elements</v>
       </c>
-      <c r="D25" s="35" t="str">
-        <f>D1</f>
+      <c r="D25" s="32" t="str">
+        <f t="shared" si="3"/>
         <v>u64 x 1</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35" t="str">
+      <c r="E25" s="32"/>
+      <c r="F25" s="32" t="str">
         <f>F1</f>
         <v>u64 x 16</v>
       </c>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="str">
+      <c r="G25" s="33"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="9" t="str">
         <f>B2</f>
-        <v>std_vec</v>
-      </c>
-      <c r="C26" s="9">
-        <f>C2</f>
+        <v>Vec</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
-      <c r="D26" s="10">
-        <f>D2</f>
+      <c r="D26" s="11">
+        <f t="shared" si="3"/>
         <v>1.3843E-3</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="12">
         <f>D26/D$26</f>
         <v>1</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="11">
         <f>F2</f>
         <v>5.8246000000000001E-3</v>
       </c>
-      <c r="G26" s="12">
-        <f t="shared" ref="G26:G29" si="2">F26/F$26</f>
+      <c r="G26" s="13">
+        <f t="shared" ref="G26:G29" si="4">F26/F$26</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="str">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="14" t="str">
         <f>B3</f>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C27" s="2">
-        <f>C3</f>
-        <v>1024</v>
-      </c>
-      <c r="D27" s="4">
-        <f>D3</f>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
+        <f t="shared" si="3"/>
         <v>1.1573E-3</v>
       </c>
-      <c r="E27" s="5">
-        <f t="shared" ref="E27:E29" si="3">D27/D$26</f>
+      <c r="E27" s="6">
+        <f t="shared" ref="E27:E29" si="5">D27/D$26</f>
         <v>0.83601820414650008</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <f>F3</f>
         <v>5.9960999999999999E-3</v>
       </c>
-      <c r="G27" s="14">
-        <f t="shared" si="2"/>
+      <c r="G27" s="15">
+        <f t="shared" si="4"/>
         <v>1.029444081997047</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="str">
-        <f t="shared" ref="B28:D41" si="4">B4</f>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="14" t="str">
+        <f t="shared" ref="B28:D41" si="6">B4</f>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1984999999999999E-3</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="5"/>
+        <v>0.86578053890052731</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:F41" si="7">F4</f>
+        <v>6.0682000000000002E-3</v>
+      </c>
+      <c r="G28" s="15">
         <f t="shared" si="4"/>
-        <v>1024</v>
-      </c>
-      <c r="D28" s="4">
+        <v>1.0418226144284586</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18">
+        <f t="shared" si="6"/>
+        <v>1.1973999999999999E-3</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="5"/>
+        <v>0.86498591345806541</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" si="7"/>
+        <v>6.0742000000000001E-3</v>
+      </c>
+      <c r="G29" s="20">
         <f t="shared" si="4"/>
-        <v>1.1984999999999999E-3</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="3"/>
-        <v>0.86578053890052731</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" ref="F28:F41" si="5">F4</f>
-        <v>6.0682000000000002E-3</v>
-      </c>
-      <c r="G28" s="14">
-        <f t="shared" si="2"/>
-        <v>1.0418226144284586</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C29" s="16">
-        <f t="shared" si="4"/>
-        <v>1024</v>
-      </c>
-      <c r="D29" s="17">
-        <f t="shared" si="4"/>
-        <v>1.1973999999999999E-3</v>
-      </c>
-      <c r="E29" s="18">
-        <f t="shared" si="3"/>
-        <v>0.86498591345806541</v>
-      </c>
-      <c r="F29" s="17">
-        <f t="shared" si="5"/>
-        <v>6.0742000000000001E-3</v>
-      </c>
-      <c r="G29" s="19">
-        <f t="shared" si="2"/>
         <v>1.042852728084332</v>
       </c>
+      <c r="H29" s="3"/>
       <c r="L29">
         <f>D29/D26</f>
         <v>0.86498591345806541</v>
@@ -2208,109 +1980,108 @@
         <v>1.042852728084332</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C30" s="9">
-        <f t="shared" si="4"/>
+    <row r="30" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Vec</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="6"/>
         <v>16384</v>
       </c>
-      <c r="D30" s="10">
-        <f t="shared" si="4"/>
+      <c r="D30" s="11">
+        <f t="shared" si="6"/>
         <v>2.2847000000000003E-2</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <f>D30/D$30</f>
         <v>1</v>
       </c>
-      <c r="F30" s="10">
-        <f t="shared" si="5"/>
+      <c r="F30" s="11">
+        <f t="shared" si="7"/>
         <v>0.10091</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="13">
         <f>F30/F$30</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="4"/>
-        <v>16384</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="4"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5">
+        <f t="shared" si="6"/>
         <v>1.9015000000000001E-2</v>
       </c>
-      <c r="E31" s="5">
-        <f t="shared" ref="E31:G33" si="6">D31/D$30</f>
+      <c r="E31" s="6">
+        <f t="shared" ref="E31:G33" si="8">D31/D$30</f>
         <v>0.83227557228520144</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="5"/>
+      <c r="F31" s="5">
+        <f t="shared" si="7"/>
         <v>0.10249999999999999</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="21">
+        <f t="shared" si="8"/>
+        <v>1.0157566148052719</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="14" t="str">
         <f t="shared" si="6"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5">
+        <f t="shared" si="6"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="8"/>
+        <v>0.83161903094498169</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="7"/>
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="8"/>
         <v>1.0157566148052719</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="4"/>
-        <v>16384</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="4"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>0.83161903094498169</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="5"/>
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="G32" s="20">
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18">
         <f t="shared" si="6"/>
-        <v>1.0157566148052719</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C33" s="16">
-        <f t="shared" si="4"/>
-        <v>16384</v>
-      </c>
-      <c r="D33" s="17">
-        <f t="shared" si="4"/>
         <v>1.9010000000000003E-2</v>
       </c>
-      <c r="E33" s="18">
-        <f t="shared" si="6"/>
+      <c r="E33" s="19">
+        <f t="shared" si="8"/>
         <v>0.83205672517179496</v>
       </c>
-      <c r="F33" s="17">
-        <f t="shared" si="5"/>
+      <c r="F33" s="18">
+        <f t="shared" si="7"/>
         <v>0.10340000000000001</v>
       </c>
-      <c r="G33" s="21">
-        <f t="shared" si="6"/>
+      <c r="G33" s="22">
+        <f t="shared" si="8"/>
         <v>1.0246754533742939</v>
       </c>
+      <c r="H33" s="3"/>
       <c r="L33">
         <f>D33/D30</f>
         <v>0.83205672517179496</v>
@@ -2320,109 +2091,108 @@
         <v>1.0246754533742939</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C34" s="9">
-        <f t="shared" si="4"/>
+    <row r="34" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Vec</v>
+      </c>
+      <c r="C34" s="10">
+        <f t="shared" si="6"/>
         <v>262144</v>
       </c>
-      <c r="D34" s="10">
-        <f t="shared" si="4"/>
+      <c r="D34" s="11">
+        <f t="shared" si="6"/>
         <v>0.36402999999999996</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="12">
         <f>D34/D$34</f>
         <v>1</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="5"/>
+      <c r="F34" s="11">
+        <f t="shared" si="7"/>
         <v>2.4842</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="13">
         <f>F34/F$34</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="4"/>
-        <v>262144</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" si="4"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5">
+        <f t="shared" si="6"/>
         <v>0.31098999999999999</v>
       </c>
-      <c r="E35" s="5">
-        <f t="shared" ref="E35:G37" si="7">D35/D$34</f>
+      <c r="E35" s="6">
+        <f t="shared" ref="E35:G37" si="9">D35/D$34</f>
         <v>0.85429772271516091</v>
       </c>
-      <c r="F35" s="4">
-        <f t="shared" si="5"/>
+      <c r="F35" s="5">
+        <f t="shared" si="7"/>
         <v>2.5592999999999999</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="21">
+        <f t="shared" si="9"/>
+        <v>1.0302310603011029</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5">
+        <f t="shared" si="6"/>
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="9"/>
+        <v>0.83646952174271361</v>
+      </c>
+      <c r="F36" s="5">
         <f t="shared" si="7"/>
-        <v>1.0302310603011029</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="4"/>
-        <v>262144</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="4"/>
-        <v>0.30449999999999999</v>
-      </c>
-      <c r="E36" s="5">
+        <v>2.5009000000000001</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="9"/>
+        <v>1.0067224861122293</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18">
+        <f t="shared" si="6"/>
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="9"/>
+        <v>0.84004065598989108</v>
+      </c>
+      <c r="F37" s="18">
         <f t="shared" si="7"/>
-        <v>0.83646952174271361</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="5"/>
-        <v>2.5009000000000001</v>
-      </c>
-      <c r="G36" s="20">
-        <f t="shared" si="7"/>
-        <v>1.0067224861122293</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C37" s="16">
-        <f t="shared" si="4"/>
-        <v>262144</v>
-      </c>
-      <c r="D37" s="17">
-        <f t="shared" si="4"/>
-        <v>0.30580000000000002</v>
-      </c>
-      <c r="E37" s="18">
-        <f t="shared" si="7"/>
-        <v>0.84004065598989108</v>
-      </c>
-      <c r="F37" s="17">
-        <f t="shared" si="5"/>
         <v>2.5104000000000002</v>
       </c>
-      <c r="G37" s="21">
-        <f t="shared" si="7"/>
+      <c r="G37" s="22">
+        <f t="shared" si="9"/>
         <v>1.0105466548587072</v>
       </c>
+      <c r="H37" s="3"/>
       <c r="L37">
         <f>D37/D34</f>
         <v>0.84004065598989108</v>
@@ -2432,109 +2202,108 @@
         <v>1.0105466548587072</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C38" s="9">
-        <f t="shared" si="4"/>
+    <row r="38" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Vec</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" si="6"/>
         <v>4194304</v>
       </c>
-      <c r="D38" s="10">
-        <f t="shared" si="4"/>
+      <c r="D38" s="11">
+        <f t="shared" si="6"/>
         <v>6.6346999999999996</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="12">
         <f>D38/D$38</f>
         <v>1</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="5"/>
+      <c r="F38" s="11">
+        <f t="shared" si="7"/>
         <v>39.786999999999999</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="13">
         <f>F38/F$38</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="4"/>
-        <v>4194304</v>
-      </c>
-      <c r="D39" s="4">
-        <f t="shared" si="4"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5">
+        <f t="shared" si="6"/>
         <v>5.8848000000000003</v>
       </c>
-      <c r="E39" s="5">
-        <f t="shared" ref="E39:G41" si="8">D39/D$38</f>
+      <c r="E39" s="6">
+        <f t="shared" ref="E39:G41" si="10">D39/D$38</f>
         <v>0.88697303570621133</v>
       </c>
-      <c r="F39" s="4">
-        <f t="shared" si="5"/>
+      <c r="F39" s="5">
+        <f t="shared" si="7"/>
         <v>40.158000000000001</v>
       </c>
-      <c r="G39" s="20">
-        <f t="shared" si="8"/>
+      <c r="G39" s="21">
+        <f t="shared" si="10"/>
         <v>1.009324653781386</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="4"/>
-        <v>4194304</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" si="4"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5">
+        <f t="shared" si="6"/>
         <v>5.6269999999999998</v>
       </c>
-      <c r="E40" s="5">
-        <f t="shared" si="8"/>
+      <c r="E40" s="6">
+        <f t="shared" si="10"/>
         <v>0.84811671967082158</v>
       </c>
-      <c r="F40" s="4">
-        <f t="shared" si="5"/>
+      <c r="F40" s="5">
+        <f t="shared" si="7"/>
         <v>40.21</v>
       </c>
-      <c r="G40" s="20">
-        <f t="shared" si="8"/>
+      <c r="G40" s="21">
+        <f t="shared" si="10"/>
         <v>1.0106316133410411</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C41" s="16">
-        <f t="shared" si="4"/>
-        <v>4194304</v>
-      </c>
-      <c r="D41" s="17">
-        <f t="shared" si="4"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18">
+        <f t="shared" si="6"/>
         <v>5.6340000000000003</v>
       </c>
-      <c r="E41" s="18">
-        <f t="shared" si="8"/>
+      <c r="E41" s="19">
+        <f t="shared" si="10"/>
         <v>0.84917177867876481</v>
       </c>
-      <c r="F41" s="17">
-        <f t="shared" si="5"/>
+      <c r="F41" s="18">
+        <f t="shared" si="7"/>
         <v>40.17</v>
       </c>
-      <c r="G41" s="21">
-        <f t="shared" si="8"/>
+      <c r="G41" s="22">
+        <f t="shared" si="10"/>
         <v>1.0096262598336141</v>
       </c>
+      <c r="H41" s="3"/>
       <c r="L41">
         <f>D41/D38</f>
         <v>0.84917177867876481</v>
@@ -2543,6 +2312,16 @@
         <f>F41/F38</f>
         <v>1.0096262598336141</v>
       </c>
+    </row>
+    <row r="42" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2552,9 +2331,9 @@
   <conditionalFormatting sqref="E26:E41 G26:G41">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
         <cfvo type="max"/>
-        <color rgb="FFCC3300"/>
+        <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -2569,9 +2348,12 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{788E83D3-DC83-4001-8266-FAA078B64ABB}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="max"/>
+              <x14:borderColor rgb="FFFF9900"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
@@ -2586,34 +2368,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7FC78D-902C-4DF1-8F50-38A3D8921053}">
-  <dimension ref="B1:N44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="7" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1024</v>
@@ -2633,9 +2415,9 @@
         <v>6.2013999999999996</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1024</v>
@@ -2655,9 +2437,9 @@
         <v>8.1479999999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1024</v>
@@ -2677,9 +2459,9 @@
         <v>6.6529999999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1024</v>
@@ -2699,9 +2481,10 @@
         <v>8.4968000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f>B2</f>
+        <v>Vec</v>
       </c>
       <c r="C6">
         <v>16384</v>
@@ -2721,9 +2504,10 @@
         <v>155.61000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f t="shared" ref="B7:B17" si="2">B3</f>
+        <v>SplitVec&lt;_, Linear&gt;</v>
       </c>
       <c r="C7">
         <v>16384</v>
@@ -2743,9 +2527,10 @@
         <v>171.55</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C8">
         <v>16384</v>
@@ -2765,9 +2550,10 @@
         <v>157.63</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
       </c>
       <c r="C9">
         <v>16384</v>
@@ -2787,9 +2573,10 @@
         <v>232.21</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec</v>
       </c>
       <c r="C10">
         <v>262144</v>
@@ -2802,9 +2589,10 @@
         <v>10.193</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>2</v>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
       </c>
       <c r="C11">
         <v>262144</v>
@@ -2816,9 +2604,10 @@
         <v>11.03</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>3</v>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C12">
         <v>262144</v>
@@ -2831,9 +2620,10 @@
         <v>10.824</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
       </c>
       <c r="C13">
         <v>262144</v>
@@ -2845,9 +2635,10 @@
         <v>16.074999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>7</v>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec</v>
       </c>
       <c r="C14">
         <v>4194304</v>
@@ -2859,9 +2650,10 @@
         <v>253.34</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>2</v>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
       </c>
       <c r="C15">
         <v>4194304</v>
@@ -2873,9 +2665,10 @@
         <v>267.49</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>3</v>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C16">
         <v>4194304</v>
@@ -2887,9 +2680,10 @@
         <v>236.89</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>9</v>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
       </c>
       <c r="C17">
         <v>4194304</v>
@@ -2901,129 +2695,149 @@
         <v>332.54</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7" t="str">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="24" t="str">
         <f>C1</f>
         <v>number of elements</v>
       </c>
-      <c r="D25" s="35" t="str">
+      <c r="D25" s="30" t="str">
         <f>D1</f>
         <v>u64 x 1</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35" t="str">
+      <c r="E25" s="30"/>
+      <c r="F25" s="30" t="str">
         <f>F1</f>
         <v>u64 x 16</v>
       </c>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="str">
+      <c r="G25" s="31"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="9" t="str">
         <f>B2</f>
-        <v>std_vec</v>
-      </c>
-      <c r="C26" s="9">
+        <v>Vec</v>
+      </c>
+      <c r="C26" s="10">
         <f>C2</f>
         <v>1024</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <f>D2</f>
         <v>1.1594999999999999E-3</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="12">
         <f>D26/D$26</f>
         <v>1</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="11">
         <f>F2</f>
         <v>6.2013999999999993E-3</v>
       </c>
-      <c r="G26" s="12">
-        <f t="shared" ref="G26:G29" si="2">F26/F$26</f>
+      <c r="G26" s="13">
+        <f t="shared" ref="G26:G29" si="3">F26/F$26</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="str">
-        <f t="shared" ref="B27:B41" si="3">B3</f>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" ref="B27:D27" si="4">C3</f>
-        <v>1024</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="14" t="str">
+        <f t="shared" ref="B27:B41" si="4">B3</f>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
+        <f t="shared" ref="D27" si="5">D3</f>
+        <v>3.0141E-3</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" ref="E27:E29" si="6">D27/D$26</f>
+        <v>2.5994825355756794</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:F41" si="7">F3</f>
+        <v>8.147999999999999E-3</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="3"/>
+        <v>1.3138968619989035</v>
+      </c>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>3.0141E-3</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" ref="E27:E29" si="5">D27/D$26</f>
-        <v>2.5994825355756794</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" ref="F27:F41" si="6">F3</f>
-        <v>8.147999999999999E-3</v>
-      </c>
-      <c r="G27" s="14">
-        <f t="shared" si="2"/>
-        <v>1.3138968619989035</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="str">
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
+        <f t="shared" ref="C28:D41" si="8">D4</f>
+        <v>1.6156E-3</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="6"/>
+        <v>1.3933592065545495</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="7"/>
+        <v>6.6529999999999992E-3</v>
+      </c>
+      <c r="G28" s="15">
         <f t="shared" si="3"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" ref="C28:D41" si="7">C4</f>
-        <v>1024</v>
-      </c>
-      <c r="D28" s="4">
+        <v>1.0728222659399491</v>
+      </c>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18">
+        <f t="shared" si="8"/>
+        <v>6.1809999999999999E-3</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="6"/>
+        <v>5.3307460112117298</v>
+      </c>
+      <c r="F29" s="18">
         <f t="shared" si="7"/>
-        <v>1.6156E-3</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="5"/>
-        <v>1.3933592065545495</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="6"/>
-        <v>6.6529999999999992E-3</v>
-      </c>
-      <c r="G28" s="14">
-        <f t="shared" si="2"/>
-        <v>1.0728222659399491</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="str">
+        <v>8.4968000000000005E-3</v>
+      </c>
+      <c r="G29" s="20">
         <f t="shared" si="3"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C29" s="16">
-        <f t="shared" si="7"/>
-        <v>1024</v>
-      </c>
-      <c r="D29" s="17">
-        <f t="shared" si="7"/>
-        <v>6.1809999999999999E-3</v>
-      </c>
-      <c r="E29" s="18">
-        <f t="shared" si="5"/>
-        <v>5.3307460112117298</v>
-      </c>
-      <c r="F29" s="17">
-        <f t="shared" si="6"/>
-        <v>8.4968000000000005E-3</v>
-      </c>
-      <c r="G29" s="19">
-        <f t="shared" si="2"/>
         <v>1.3701422259489795</v>
       </c>
+      <c r="H29" s="25"/>
       <c r="L29">
         <f>D29/D26</f>
         <v>5.3307460112117298</v>
@@ -3033,109 +2847,108 @@
         <v>1.3701422259489795</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C30" s="9">
-        <f t="shared" si="7"/>
+    <row r="30" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Vec</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="8"/>
         <v>16384</v>
       </c>
-      <c r="D30" s="10">
-        <f t="shared" si="7"/>
+      <c r="D30" s="11">
+        <f t="shared" si="8"/>
         <v>2.2178999999999997E-2</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <f>D30/D$30</f>
         <v>1</v>
       </c>
-      <c r="F30" s="10">
-        <f t="shared" si="6"/>
+      <c r="F30" s="11">
+        <f t="shared" si="7"/>
         <v>0.15561000000000003</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="13">
         <f>F30/F$30</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5">
+        <f t="shared" si="8"/>
+        <v>5.5296999999999999E-2</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" ref="E31:E33" si="9">D31/D$30</f>
+        <v>2.4932143018170345</v>
+      </c>
+      <c r="F31" s="5">
         <f t="shared" si="7"/>
-        <v>16384</v>
-      </c>
-      <c r="D31" s="4">
+        <v>0.17155000000000001</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" ref="G31:G33" si="10">F31/F$30</f>
+        <v>1.1024355761197866</v>
+      </c>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5">
+        <f t="shared" si="8"/>
+        <v>2.8513E-2</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="9"/>
+        <v>1.285585463726949</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" si="7"/>
-        <v>5.5296999999999999E-2</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" ref="E31:E33" si="8">D31/D$30</f>
-        <v>2.4932143018170345</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.17155000000000001</v>
-      </c>
-      <c r="G31" s="20">
-        <f t="shared" ref="G31:G33" si="9">F31/F$30</f>
-        <v>1.1024355761197866</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C32" s="2">
+        <v>0.15762999999999999</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="10"/>
+        <v>1.0129811708759076</v>
+      </c>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18">
+        <f t="shared" si="8"/>
+        <v>0.15816</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="9"/>
+        <v>7.1310699310158263</v>
+      </c>
+      <c r="F33" s="18">
         <f t="shared" si="7"/>
-        <v>16384</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="7"/>
-        <v>2.8513E-2</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="8"/>
-        <v>1.285585463726949</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="6"/>
-        <v>0.15762999999999999</v>
-      </c>
-      <c r="G32" s="20">
-        <f t="shared" si="9"/>
-        <v>1.0129811708759076</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C33" s="16">
-        <f t="shared" si="7"/>
-        <v>16384</v>
-      </c>
-      <c r="D33" s="17">
-        <f t="shared" si="7"/>
-        <v>0.15816</v>
-      </c>
-      <c r="E33" s="18">
-        <f t="shared" si="8"/>
-        <v>7.1310699310158263</v>
-      </c>
-      <c r="F33" s="17">
-        <f t="shared" si="6"/>
         <v>0.23221</v>
       </c>
-      <c r="G33" s="21">
-        <f t="shared" si="9"/>
+      <c r="G33" s="22">
+        <f t="shared" si="10"/>
         <v>1.4922562817299656</v>
       </c>
+      <c r="H33" s="25"/>
       <c r="L33">
         <f>D33/D30</f>
         <v>7.1310699310158263</v>
@@ -3145,109 +2958,108 @@
         <v>1.4922562817299656</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C34" s="9">
-        <f t="shared" si="7"/>
+    <row r="34" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Vec</v>
+      </c>
+      <c r="C34" s="10">
+        <f t="shared" si="8"/>
         <v>262144</v>
       </c>
-      <c r="D34" s="10">
-        <f t="shared" si="7"/>
+      <c r="D34" s="11">
+        <f t="shared" si="8"/>
         <v>0.54065999999999992</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="12">
         <f>D34/D$34</f>
         <v>1</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="6"/>
+      <c r="F34" s="11">
+        <f t="shared" si="7"/>
         <v>10.193</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="13">
         <f>F34/F$34</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5">
+        <f t="shared" si="8"/>
+        <v>1.0773999999999999</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" ref="E35:E37" si="11">D35/D$34</f>
+        <v>1.9927496023378835</v>
+      </c>
+      <c r="F35" s="5">
         <f t="shared" si="7"/>
-        <v>262144</v>
-      </c>
-      <c r="D35" s="4">
+        <v>11.03</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" ref="G35:G37" si="12">F35/F$34</f>
+        <v>1.0821151770823114</v>
+      </c>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5">
+        <f t="shared" si="8"/>
+        <v>0.67498000000000002</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="11"/>
+        <v>1.2484370954019164</v>
+      </c>
+      <c r="F36" s="5">
         <f t="shared" si="7"/>
-        <v>1.0773999999999999</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" ref="E35:E37" si="10">D35/D$34</f>
-        <v>1.9927496023378835</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="6"/>
-        <v>11.03</v>
-      </c>
-      <c r="G35" s="20">
-        <f t="shared" ref="G35:G37" si="11">F35/F$34</f>
-        <v>1.0821151770823114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C36" s="2">
+        <v>10.824</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="12"/>
+        <v>1.0619052290787796</v>
+      </c>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18">
+        <f t="shared" si="8"/>
+        <v>3.4293</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="11"/>
+        <v>6.3428032404838541</v>
+      </c>
+      <c r="F37" s="18">
         <f t="shared" si="7"/>
-        <v>262144</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="7"/>
-        <v>0.67498000000000002</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" si="10"/>
-        <v>1.2484370954019164</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="6"/>
-        <v>10.824</v>
-      </c>
-      <c r="G36" s="20">
-        <f t="shared" si="11"/>
-        <v>1.0619052290787796</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C37" s="16">
-        <f t="shared" si="7"/>
-        <v>262144</v>
-      </c>
-      <c r="D37" s="17">
-        <f t="shared" si="7"/>
-        <v>3.4293</v>
-      </c>
-      <c r="E37" s="18">
-        <f t="shared" si="10"/>
-        <v>6.3428032404838541</v>
-      </c>
-      <c r="F37" s="17">
-        <f t="shared" si="6"/>
         <v>16.074999999999999</v>
       </c>
-      <c r="G37" s="21">
-        <f t="shared" si="11"/>
+      <c r="G37" s="22">
+        <f t="shared" si="12"/>
         <v>1.5770626900814284</v>
       </c>
+      <c r="H37" s="25"/>
       <c r="L37">
         <f>D37/D34</f>
         <v>6.3428032404838541</v>
@@ -3257,109 +3069,108 @@
         <v>1.5770626900814284</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>std_vec</v>
-      </c>
-      <c r="C38" s="9">
-        <f t="shared" si="7"/>
+    <row r="38" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25"/>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>Vec</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" si="8"/>
         <v>4194304</v>
       </c>
-      <c r="D38" s="10">
-        <f t="shared" si="7"/>
+      <c r="D38" s="11">
+        <f t="shared" si="8"/>
         <v>46.395000000000003</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="12">
         <f>D38/D$38</f>
         <v>1</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="6"/>
+      <c r="F38" s="11">
+        <f t="shared" si="7"/>
         <v>253.34</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="13">
         <f>F38/F$38</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>split_vec_linear</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Linear&gt;</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5">
+        <f t="shared" si="8"/>
+        <v>69.316000000000003</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" ref="E39:E41" si="13">D39/D$38</f>
+        <v>1.4940403060674641</v>
+      </c>
+      <c r="F39" s="5">
         <f t="shared" si="7"/>
-        <v>4194304</v>
-      </c>
-      <c r="D39" s="4">
+        <v>267.49</v>
+      </c>
+      <c r="G39" s="21">
+        <f t="shared" ref="G39:G41" si="14">F39/F$38</f>
+        <v>1.0558537933212284</v>
+      </c>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5">
+        <f t="shared" si="8"/>
+        <v>51.656999999999996</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="13"/>
+        <v>1.113417394115745</v>
+      </c>
+      <c r="F40" s="5">
         <f t="shared" si="7"/>
-        <v>69.316000000000003</v>
-      </c>
-      <c r="E39" s="5">
-        <f t="shared" ref="E39:E41" si="12">D39/D$38</f>
-        <v>1.4940403060674641</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="6"/>
-        <v>267.49</v>
-      </c>
-      <c r="G39" s="20">
-        <f t="shared" ref="G39:G41" si="13">F39/F$38</f>
-        <v>1.0558537933212284</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C40" s="2">
+        <v>236.89</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" si="14"/>
+        <v>0.93506749822373092</v>
+      </c>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:14" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18">
+        <f t="shared" si="8"/>
+        <v>188.15</v>
+      </c>
+      <c r="E41" s="19">
+        <f t="shared" si="13"/>
+        <v>4.0553939002047636</v>
+      </c>
+      <c r="F41" s="18">
         <f t="shared" si="7"/>
-        <v>4194304</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" si="7"/>
-        <v>51.656999999999996</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" si="12"/>
-        <v>1.113417394115745</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="6"/>
-        <v>236.89</v>
-      </c>
-      <c r="G40" s="20">
-        <f t="shared" si="13"/>
-        <v>0.93506749822373092</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C41" s="16">
-        <f t="shared" si="7"/>
-        <v>4194304</v>
-      </c>
-      <c r="D41" s="17">
-        <f t="shared" si="7"/>
-        <v>188.15</v>
-      </c>
-      <c r="E41" s="18">
-        <f t="shared" si="12"/>
-        <v>4.0553939002047636</v>
-      </c>
-      <c r="F41" s="17">
-        <f t="shared" si="6"/>
         <v>332.54</v>
       </c>
-      <c r="G41" s="21">
-        <f t="shared" si="13"/>
+      <c r="G41" s="22">
+        <f t="shared" si="14"/>
         <v>1.3126233520170523</v>
       </c>
+      <c r="H41" s="25"/>
       <c r="L41">
         <f>D41/D38</f>
         <v>4.0553939002047636</v>
@@ -3369,7 +3180,27 @@
         <v>1.3126233520170523</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L44">
         <f>AVERAGE(L29:L41)</f>
         <v>5.715003270729043</v>
@@ -3383,9 +3214,9 @@
   <conditionalFormatting sqref="E26:E41 G26:G41">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
         <cfvo type="max"/>
-        <color rgb="FFCC3300"/>
+        <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -3400,9 +3231,12 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{46AF7E9C-5A2F-4E26-A45B-2BFACCA9EAF9}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="max"/>
+              <x14:borderColor rgb="FFFF9900"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
@@ -3417,37 +3251,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE9CB73-5432-4CE0-9583-0D8A627C9947}">
-  <dimension ref="B1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="5" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>1024</v>
       </c>
       <c r="D2">
-        <f>F2/1000</f>
+        <f t="shared" ref="D2:D9" si="0">F2/1000</f>
         <v>2.7594999999999998E-2</v>
       </c>
       <c r="F2">
@@ -3457,15 +3291,15 @@
         <v>6.2013999999999996</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1024</v>
       </c>
       <c r="D3">
-        <f>F3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.0868000000000001E-2</v>
       </c>
       <c r="F3">
@@ -3475,15 +3309,15 @@
         <v>8.1479999999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1024</v>
       </c>
       <c r="D4">
-        <f>F4/1000</f>
+        <f t="shared" si="0"/>
         <v>1.6095999999999999E-2</v>
       </c>
       <c r="F4">
@@ -3493,15 +3327,15 @@
         <v>6.6529999999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1024</v>
       </c>
       <c r="D5">
-        <f>F5/1000</f>
+        <f t="shared" si="0"/>
         <v>1.3842000000000001E-3</v>
       </c>
       <c r="F5">
@@ -3511,16 +3345,16 @@
         <v>8.4968000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>B2</f>
-        <v>std_vec_new</v>
+        <v>Vec::new</v>
       </c>
       <c r="C6">
         <v>16384</v>
       </c>
       <c r="D6">
-        <f>F6/1000</f>
+        <f t="shared" si="0"/>
         <v>1.6440999999999999</v>
       </c>
       <c r="F6">
@@ -3530,16 +3364,16 @@
         <v>155.61000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B17" si="0">B3</f>
-        <v>std_vec_with_exact_capacity</v>
+        <f t="shared" ref="B7:B17" si="1">B3</f>
+        <v>Vec::with_capacity</v>
       </c>
       <c r="C7">
         <v>16384</v>
       </c>
       <c r="D7">
-        <f>F7/1000</f>
+        <f t="shared" si="0"/>
         <v>0.75737999999999994</v>
       </c>
       <c r="F7">
@@ -3549,16 +3383,16 @@
         <v>171.55</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>split_vec_doubling</v>
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C8">
         <v>16384</v>
       </c>
       <c r="D8">
-        <f>F8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.65244000000000002</v>
       </c>
       <c r="F8">
@@ -3568,16 +3402,16 @@
         <v>157.63</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>split_vec_recursive</v>
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
       </c>
       <c r="C9">
         <v>16384</v>
       </c>
       <c r="D9">
-        <f>F9/1000</f>
+        <f t="shared" si="0"/>
         <v>2.1753999999999996E-3</v>
       </c>
       <c r="F9">
@@ -3587,10 +3421,10 @@
         <v>232.21</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>std_vec_new</v>
+        <f t="shared" si="1"/>
+        <v>Vec::new</v>
       </c>
       <c r="C10">
         <v>262144</v>
@@ -3599,10 +3433,10 @@
         <v>26.672000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>std_vec_with_exact_capacity</v>
+        <f t="shared" si="1"/>
+        <v>Vec::with_capacity</v>
       </c>
       <c r="C11">
         <v>262144</v>
@@ -3611,10 +3445,10 @@
         <v>13.867000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>split_vec_doubling</v>
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C12">
         <v>262144</v>
@@ -3623,10 +3457,10 @@
         <v>13.747999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>split_vec_recursive</v>
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
       </c>
       <c r="C13">
         <v>262144</v>
@@ -3635,10 +3469,10 @@
         <v>9.1730000000000006E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>std_vec_new</v>
+        <f t="shared" si="1"/>
+        <v>Vec::new</v>
       </c>
       <c r="C14">
         <v>4194304</v>
@@ -3647,10 +3481,10 @@
         <v>497.51</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>std_vec_with_exact_capacity</v>
+        <f t="shared" si="1"/>
+        <v>Vec::with_capacity</v>
       </c>
       <c r="C15">
         <v>4194304</v>
@@ -3659,10 +3493,10 @@
         <v>224.62</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>split_vec_doubling</v>
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
       </c>
       <c r="C16">
         <v>4194304</v>
@@ -3671,10 +3505,10 @@
         <v>227.58</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>split_vec_recursive</v>
+        <f t="shared" si="1"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
       </c>
       <c r="C17">
         <v>4194304</v>
@@ -3683,95 +3517,102 @@
         <v>6.6280000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="38" t="str">
+    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="24" t="str">
         <f>C1</f>
         <v>number of elements</v>
       </c>
-      <c r="D25" s="39" t="str">
+      <c r="D25" s="30" t="str">
         <f>D1</f>
         <v>u64 x 1</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="str">
+      <c r="E25" s="31"/>
+      <c r="F25" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="9" t="str">
         <f>B2</f>
-        <v>std_vec_new</v>
-      </c>
-      <c r="C26" s="9">
+        <v>Vec::new</v>
+      </c>
+      <c r="C26" s="10">
         <f>C2</f>
         <v>1024</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
         <f>D2</f>
         <v>2.7594999999999998E-2</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="13">
         <f>D26/D$26</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="str">
-        <f t="shared" ref="B27:D41" si="1">B3</f>
-        <v>std_vec_with_exact_capacity</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="1"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="14" t="str">
+        <f t="shared" ref="B27:D41" si="2">B3</f>
+        <v>Vec::with_capacity</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
+        <f t="shared" si="2"/>
         <v>1.0868000000000001E-2</v>
       </c>
-      <c r="E27" s="44">
-        <f t="shared" ref="E27:E29" si="2">D27/D$26</f>
+      <c r="E27" s="21">
+        <f t="shared" ref="E27:E29" si="3">D27/D$26</f>
         <v>0.39383946367095496</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="1"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
+        <f t="shared" si="2"/>
         <v>1.6095999999999999E-2</v>
       </c>
-      <c r="E28" s="44">
-        <f t="shared" si="2"/>
+      <c r="E28" s="21">
+        <f t="shared" si="3"/>
         <v>0.58329407501358943</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C29" s="16">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="D29" s="17">
-        <f t="shared" si="1"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18">
+        <f t="shared" si="2"/>
         <v>1.3842000000000001E-3</v>
       </c>
-      <c r="E29" s="46">
-        <f t="shared" si="2"/>
+      <c r="E29" s="22">
+        <f t="shared" si="3"/>
         <v>5.016126109802501E-2</v>
       </c>
+      <c r="F29" s="25"/>
       <c r="J29">
         <f>D29/D26</f>
         <v>5.016126109802501E-2</v>
@@ -3781,77 +3622,76 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>std_vec_new</v>
-      </c>
-      <c r="C30" s="9">
-        <f t="shared" si="1"/>
+    <row r="30" spans="1:12" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec::new</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="2"/>
         <v>16384</v>
       </c>
-      <c r="D30" s="10">
-        <f t="shared" si="1"/>
+      <c r="D30" s="11">
+        <f t="shared" si="2"/>
         <v>1.6440999999999999</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="13">
         <f>D30/D$30</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>std_vec_with_exact_capacity</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="1"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:12" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec::with_capacity</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5">
+        <f t="shared" si="2"/>
         <v>0.75737999999999994</v>
       </c>
-      <c r="E31" s="44">
-        <f t="shared" ref="E31:E33" si="3">D31/D$30</f>
+      <c r="E31" s="21">
+        <f t="shared" ref="E31:E33" si="4">D31/D$30</f>
         <v>0.46066540964661518</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="1"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:12" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5">
+        <f t="shared" si="2"/>
         <v>0.65244000000000002</v>
       </c>
-      <c r="E32" s="44">
-        <f t="shared" si="3"/>
+      <c r="E32" s="21">
+        <f t="shared" si="4"/>
         <v>0.39683717535429724</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C33" s="16">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D33" s="17">
-        <f t="shared" si="1"/>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:12" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18">
+        <f t="shared" si="2"/>
         <v>2.1753999999999996E-3</v>
       </c>
-      <c r="E33" s="46">
-        <f t="shared" si="3"/>
+      <c r="E33" s="22">
+        <f t="shared" si="4"/>
         <v>1.3231555258195972E-3</v>
       </c>
+      <c r="F33" s="25"/>
       <c r="J33">
         <f>D33/D30</f>
         <v>1.3231555258195972E-3</v>
@@ -3861,77 +3701,76 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>std_vec_new</v>
-      </c>
-      <c r="C34" s="9">
-        <f t="shared" si="1"/>
+    <row r="34" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec::new</v>
+      </c>
+      <c r="C34" s="10">
+        <f t="shared" si="2"/>
         <v>262144</v>
       </c>
-      <c r="D34" s="10">
-        <f t="shared" si="1"/>
+      <c r="D34" s="11">
+        <f t="shared" si="2"/>
         <v>26.672000000000001</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="13">
         <f>D34/D$34</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>std_vec_with_exact_capacity</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="1"/>
-        <v>262144</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" si="1"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec::with_capacity</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5">
+        <f t="shared" si="2"/>
         <v>13.867000000000001</v>
       </c>
-      <c r="E35" s="44">
-        <f t="shared" ref="E35:E37" si="4">D35/D$34</f>
+      <c r="E35" s="21">
+        <f t="shared" ref="E35:E37" si="5">D35/D$34</f>
         <v>0.51990851829634077</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="1"/>
-        <v>262144</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="1"/>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5">
+        <f t="shared" si="2"/>
         <v>13.747999999999999</v>
       </c>
-      <c r="E36" s="44">
-        <f t="shared" si="4"/>
+      <c r="E36" s="21">
+        <f t="shared" si="5"/>
         <v>0.5154469106178764</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C37" s="16">
-        <f t="shared" si="1"/>
-        <v>262144</v>
-      </c>
-      <c r="D37" s="17">
-        <f t="shared" si="1"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18">
+        <f t="shared" si="2"/>
         <v>9.1730000000000006E-3</v>
       </c>
-      <c r="E37" s="46">
-        <f t="shared" si="4"/>
+      <c r="E37" s="22">
+        <f t="shared" si="5"/>
         <v>3.4391871625674865E-4</v>
       </c>
+      <c r="F37" s="25"/>
       <c r="J37">
         <f>D37/D34</f>
         <v>3.4391871625674865E-4</v>
@@ -3941,77 +3780,76 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>std_vec_new</v>
-      </c>
-      <c r="C38" s="9">
-        <f t="shared" si="1"/>
+    <row r="38" spans="1:12" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25"/>
+      <c r="B38" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec::new</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" si="2"/>
         <v>4194304</v>
       </c>
-      <c r="D38" s="10">
-        <f t="shared" si="1"/>
+      <c r="D38" s="11">
+        <f t="shared" si="2"/>
         <v>497.51</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="13">
         <f>D38/D$38</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>std_vec_with_exact_capacity</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="1"/>
-        <v>4194304</v>
-      </c>
-      <c r="D39" s="4">
-        <f t="shared" si="1"/>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:12" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>Vec::with_capacity</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5">
+        <f t="shared" si="2"/>
         <v>224.62</v>
       </c>
-      <c r="E39" s="44">
-        <f t="shared" ref="E39:E41" si="5">D39/D$38</f>
+      <c r="E39" s="21">
+        <f t="shared" ref="E39:E41" si="6">D39/D$38</f>
         <v>0.45148841229322023</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>split_vec_doubling</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="1"/>
-        <v>4194304</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" si="1"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:12" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Doubling&gt;</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5">
+        <f t="shared" si="2"/>
         <v>227.58</v>
       </c>
-      <c r="E40" s="44">
-        <f t="shared" si="5"/>
+      <c r="E40" s="21">
+        <f t="shared" si="6"/>
         <v>0.4574380414464031</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>split_vec_recursive</v>
-      </c>
-      <c r="C41" s="48">
-        <f t="shared" si="1"/>
-        <v>4194304</v>
-      </c>
-      <c r="D41" s="49">
-        <f t="shared" si="1"/>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:12" ht="19.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>SplitVec&lt;_, Recursive&gt;</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18">
+        <f t="shared" si="2"/>
         <v>6.6280000000000002E-3</v>
       </c>
-      <c r="E41" s="50">
-        <f t="shared" si="5"/>
+      <c r="E41" s="22">
+        <f t="shared" si="6"/>
         <v>1.3322345279491869E-5</v>
       </c>
+      <c r="F41" s="25"/>
       <c r="J41">
         <f>D41/D38</f>
         <v>1.3322345279491869E-5</v>
@@ -4020,6 +3858,14 @@
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
+    </row>
+    <row r="42" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4028,9 +3874,9 @@
   <conditionalFormatting sqref="E26:E41">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
         <cfvo type="max"/>
-        <color rgb="FFCC3300"/>
+        <color rgb="FFFF0000"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -4046,9 +3892,12 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EB8BD6CE-FEC1-4CA8-8DC9-599965DD1522}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="max"/>
+              <x14:borderColor rgb="FFFF9900"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
@@ -4059,4 +3908,10 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{736915f3-2f02-4945-8997-f2963298db46}" enabled="1" method="Standard" siteId="{cd99fef8-1cd3-4a2a-9bdf-15531181d65e}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>